--- a/typescript.xlsx
+++ b/typescript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PackHangSeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ES6" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="java" sheetId="9" r:id="rId3"/>
     <sheet name="thuyettrinh" sheetId="7" r:id="rId4"/>
     <sheet name="angularjs" sheetId="8" r:id="rId5"/>
-    <sheet name="Class1" sheetId="5" r:id="rId6"/>
-    <sheet name="Class2" sheetId="6" r:id="rId7"/>
-    <sheet name="angular" sheetId="2" r:id="rId8"/>
-    <sheet name="av4" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="Class1" sheetId="5" r:id="rId7"/>
+    <sheet name="Class2" sheetId="6" r:id="rId8"/>
+    <sheet name="angular" sheetId="2" r:id="rId9"/>
+    <sheet name="av4" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">angular!$A$1:$AD$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">angular!$A$1:$AD$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ES6'!$A$1:$AM$368</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Typescript!$A$1:$AT$312</definedName>
   </definedNames>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="550">
   <si>
     <t>TYPESCRIPT</t>
   </si>
@@ -19993,13 +19994,232 @@
   </si>
   <si>
     <t>s.getValue();</t>
+  </si>
+  <si>
+    <t>Sử dụng filter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">currency </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: định dạng số thành kiểu tiền tệ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dịnh dạng ngày tháng theo định dạng đã cho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : trả về tập con từ mảng dữ liệu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">json : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>định dạng đối tượng thành json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">limitTo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: giới hạn một mảng / chuỗi thành một số phần tử /ký tự đã cho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lowercase : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuyển chuỗi sang chữ thường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : chuyển số sang chữ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">orderBy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: sắp xếp mảng theo thứ tự</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">uppercase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: chuyển chuỗi sang chữ hoa</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20173,6 +20393,15 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -20379,7 +20608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -20517,6 +20746,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -29672,12 +29902,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AQ306"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A300" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A186" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M308" sqref="M308"/>
     </sheetView>
   </sheetViews>
@@ -35223,7 +35477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -35360,10 +35614,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
+  <dimension ref="B3:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35378,16 +35632,79 @@
         <v>490</v>
       </c>
     </row>
+    <row r="17" spans="2:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="60" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="73" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="73" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="73" t="s">
+        <v>549</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB22"/>
   <sheetViews>
@@ -36043,7 +36360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB91"/>
   <sheetViews>
@@ -38403,7 +38720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:I12"/>
@@ -38462,28 +38779,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/typescript.xlsx
+++ b/typescript.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ES6" sheetId="1" r:id="rId1"/>
-    <sheet name="Typescript" sheetId="3" r:id="rId2"/>
-    <sheet name="java" sheetId="9" r:id="rId3"/>
-    <sheet name="thuyettrinh" sheetId="7" r:id="rId4"/>
-    <sheet name="angularjs" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="Class1" sheetId="5" r:id="rId7"/>
-    <sheet name="Class2" sheetId="6" r:id="rId8"/>
-    <sheet name="angular" sheetId="2" r:id="rId9"/>
-    <sheet name="av4" sheetId="4" r:id="rId10"/>
+    <sheet name="freecodecam" sheetId="11" r:id="rId2"/>
+    <sheet name="Typescript" sheetId="3" r:id="rId3"/>
+    <sheet name="java" sheetId="9" r:id="rId4"/>
+    <sheet name="thuyettrinh" sheetId="7" r:id="rId5"/>
+    <sheet name="angularjs" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="Class1" sheetId="5" r:id="rId8"/>
+    <sheet name="Class2" sheetId="6" r:id="rId9"/>
+    <sheet name="angular" sheetId="2" r:id="rId10"/>
+    <sheet name="av4" sheetId="4" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">angular!$A$1:$AD$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">angular!$A$1:$AD$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ES6'!$A$1:$AM$368</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Typescript!$A$1:$AT$312</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">java!$A$1:$AP$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Typescript!$A$1:$AT$312</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="552">
   <si>
     <t>TYPESCRIPT</t>
   </si>
@@ -19952,9 +19954,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=6Wu8zHVJTl0</t>
-  </si>
-  <si>
-    <t>https://www.xnxx.com/video-pxs9d56/thit_con_ban_._full_http_megaurl.in_mx1bdr8a</t>
   </si>
   <si>
     <t>Map&lt;Integer, String&gt; map = new HashMap&lt;Integer, String &gt;();</t>
@@ -20213,13 +20212,36 @@
       </rPr>
       <t>: chuyển chuỗi sang chữ hoa</t>
     </r>
+  </si>
+  <si>
+    <t>⭐️Curriculum⭐️
+This course goes along with the freeCodeCamp.org JavaScript curriculum. However, this is a stand-alone video and going through the free curriculum at freeCodeCamp.org is not required. Here is how to access the JavaScript curriculum:
+🔗 Basic JavaScript:https://learn.freecodecamp.org/javascript-algorithms-and-data-structures/basic-javascript/
+🔗 ES6 JavaScript: https://learn.freecodecamp.org/javascript-algorithms-and-data-structures/es6/
+⭐️Code⭐️ 
+This course was created using scrimba.com. You can access the course on scrimba.com, along with all the code used in the course: 
+🔗 Basic JavaScript: https://scrimba.com/playlist/pny4ghw 
+🔗 ES6 JavaScript: https://scrimba.com/playlist/p7v3gCd 
+⭐️Learn Next 
+    💻🎥 Learn to use JavaScript with the HTML DOM: https://www.youtube.com/playlist?list=PLWKjhJtqVAbllLK6r2dnGjUVWB_cFNcuO 
+    💻🎥 Create a project using JavaScript: https://www.youtube.com/playlist?list=PLWKjhJtqVAbleDe3_ZA8h3AO2rXar-q2V
+    🐦🐦 Follow course creator Beau Carnes on Twitter: https://www.twitter.com/CarnesBeau 
+⭐️Course Contents
+⭐️ See pinned comment for full course contents. The course contents exceeded the character limit for video descriptions. 
+🎥And if you like robots and toys, check out Beau's other YouTube channel: https://www.youtube.com/robotfamily -- Learn to code for free and get a developer job: https://www.freecodecamp.org Read hundreds of articles on programming: https://medium.freecodecamp.org And subscribe for new videos on technology every day: https://youtube.com/subscription_cent...</t>
+  </si>
+  <si>
+    <t>https://demo.mobiscroll.com/angularjs/</t>
+  </si>
+  <si>
+    <t>http://jsfiddle.net/mkgupta911/jxrpxt7o/2/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20398,6 +20420,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -20608,7 +20638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -20747,6 +20777,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -29904,6 +29937,67 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B3:I12"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2"/>
   <sheetViews>
@@ -29928,10 +30022,943 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AK25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="74" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+    </row>
+    <row r="3" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+    </row>
+    <row r="4" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="74"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="74"/>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:AK25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AQ306"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A186" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A186" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M308" sqref="M308"/>
     </sheetView>
   </sheetViews>
@@ -35473,103 +36500,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D43"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -35577,13 +36599,13 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B6"/>
   <sheetViews>
@@ -35612,12 +36634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35632,67 +36654,79 @@
         <v>490</v>
       </c>
     </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="73" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -35704,7 +36738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB22"/>
   <sheetViews>
@@ -36360,7 +37394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB91"/>
   <sheetViews>
@@ -38718,65 +39752,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B3:I12"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="3.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/typescript.xlsx
+++ b/typescript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" tabRatio="876" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ES6" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="553">
   <si>
     <t>TYPESCRIPT</t>
   </si>
@@ -20235,6 +20235,9 @@
   </si>
   <si>
     <t>http://jsfiddle.net/mkgupta911/jxrpxt7o/2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -29940,8 +29943,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36636,30 +36639,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B26"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>551</v>
       </c>

--- a/typescript.xlsx
+++ b/typescript.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PackHangSeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" tabRatio="876" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" tabRatio="876" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ES6" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">angular!$A$1:$AD$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ES6'!$A$1:$AM$368</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">java!$A$1:$AP$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">java!$A$1:$AP$165</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Typescript!$A$1:$AT$312</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="661">
   <si>
     <t>TYPESCRIPT</t>
   </si>
@@ -20239,12 +20239,1460 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>I/ collections</t>
+  </si>
+  <si>
+    <t>1. ArrayList&lt;String&gt; list = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>list.add("A1");</t>
+  </si>
+  <si>
+    <t>list.add("A2");</t>
+  </si>
+  <si>
+    <t>// Xoa phan tu trong mang</t>
+  </si>
+  <si>
+    <t>list.remove(index);</t>
+  </si>
+  <si>
+    <t>// Duyet mang</t>
+  </si>
+  <si>
+    <t>// Cach1:</t>
+  </si>
+  <si>
+    <t>for (){</t>
+  </si>
+  <si>
+    <t>. . .</t>
+  </si>
+  <si>
+    <t>// Cach 2: dung foreach</t>
+  </si>
+  <si>
+    <t>println(list.get(i));</t>
+  </si>
+  <si>
+    <t>for (String string : list ){  println(list); }</t>
+  </si>
+  <si>
+    <t>// Cach 3: Su dung Iterator</t>
+  </si>
+  <si>
+    <t>Iterator&lt;String&gt; iterator = list.iterator();</t>
+  </si>
+  <si>
+    <t>while (iterator.hasNext()){</t>
+  </si>
+  <si>
+    <t>String item = iterator.next();</t>
+  </si>
+  <si>
+    <t>//Cach 4: Su dung lamda</t>
+  </si>
+  <si>
+    <t>list.forEach((item)-&gt;{</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Cach 5: </t>
+  </si>
+  <si>
+    <t>list.stream().forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Cach 6 : </t>
+  </si>
+  <si>
+    <t>list.parallelStream().forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>1. HashMap</t>
+  </si>
+  <si>
+    <t>HashMap&lt;String, String&gt;  map = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map.put("fullName" , "Truong van hau"); </t>
+  </si>
+  <si>
+    <t>map.put("age" , "1");</t>
+  </si>
+  <si>
+    <t>HashMap&lt;String, Object&gt;  map1 = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map1.put("fullName" , "Truong van hau"); </t>
+  </si>
+  <si>
+    <t>map.put("age" , 1);</t>
+  </si>
+  <si>
+    <t>// Object khong can biet do la kieu gi</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>rollNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>rollNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>rollNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>rollNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>   }</t>
+  </si>
+  <si>
+    <r>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>studentList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"MS01"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Truong van hau"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>studentList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>pust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>rollNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"MS02"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Truong van phuong"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>std2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>studentList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"MS01"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Duyet xem co bao nhieu key trong HashMap</t>
+  </si>
+  <si>
+    <r>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>keySet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>forEach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>) -&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>// Lay tat ca cac key ton tai trong Map do</t>
+  </si>
+  <si>
+    <r>
+      <t>   System.out.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"key : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t> + key + "+" + map.get(key));</t>
+    </r>
+  </si>
+  <si>
+    <t>II/ Maps</t>
+  </si>
+  <si>
+    <t>* The Important methods of a Map interface are as follows :</t>
+  </si>
+  <si>
+    <t>*  The Collections API provides three general-purpose Map implementations :</t>
+  </si>
+  <si>
+    <t>- HashMap</t>
+  </si>
+  <si>
+    <t>- TreeMap</t>
+  </si>
+  <si>
+    <t>- LinkedHashMap</t>
+  </si>
+  <si>
+    <t>- put (K key, V value);</t>
+  </si>
+  <si>
+    <t>- get (Object key);</t>
+  </si>
+  <si>
+    <t>- contrainsValue (Object value);</t>
+  </si>
+  <si>
+    <t>- size ();</t>
+  </si>
+  <si>
+    <t>- values();</t>
+  </si>
+  <si>
+    <t>- containsKey (Object key)     // Kiem tra xem key co ton tai trong map hay khong</t>
+  </si>
+  <si>
+    <t>ex: map.containsKey("abc");  -&gt; true neu ton tai, nguoc lai la false</t>
+  </si>
+  <si>
+    <t>// chi lay duoc phan tu dau va cuoi first(); va last();</t>
+  </si>
+  <si>
+    <t>- HashSet</t>
+  </si>
+  <si>
+    <t>- TreeSet</t>
+  </si>
+  <si>
+    <t>- Link</t>
+  </si>
+  <si>
+    <t>-&gt; Set&lt;String&gt; words = new HashSet&lt;String&gt;();</t>
+  </si>
+  <si>
+    <t>1. stack(Ngăn xếp)</t>
+  </si>
+  <si>
+    <t>VD: giống như 1 chồng sách khi chồng 1 cuốn sách lên thì thằng vào sau bào giờ cũng ở đàu chồng sách</t>
+  </si>
+  <si>
+    <t>-&gt; lách 1 cuốn sách ra thì lấy từ đàu ra (VÀO SAU RA TRƯỚC - Last In First Out(LIFO))</t>
+  </si>
+  <si>
+    <t>2. Queues(Hàng đợi)</t>
+  </si>
+  <si>
+    <t>VD/: giống như xếp hàng mua vé theo cơ chế FIFO(First In First Out) ai mua vé trước thì ra trước</t>
+  </si>
+  <si>
+    <t>* This interface includes the following five methods:</t>
+  </si>
+  <si>
+    <t>- empty()</t>
+  </si>
+  <si>
+    <t>- peek()</t>
+  </si>
+  <si>
+    <t>- pop()</t>
+  </si>
+  <si>
+    <t>- push (E item)</t>
+  </si>
+  <si>
+    <t>- int search (Object o )</t>
+  </si>
+  <si>
+    <t>PriorityQueue&lt;String&gt; queue = new PriorityQueue&lt;String&gt;();</t>
+  </si>
+  <si>
+    <t>queue.offer("VN");</t>
+  </si>
+  <si>
+    <t>queue.offer("van hau");</t>
+  </si>
+  <si>
+    <t>-&gt; giong voi ham put</t>
+  </si>
+  <si>
+    <t>System.out.println(queue.poll()); -&gt; VN    (poll tương tự như pop)</t>
+  </si>
+  <si>
+    <t>III. sets</t>
+  </si>
+  <si>
+    <t>IV. stack and queues</t>
+  </si>
+  <si>
+    <t>V. Generic</t>
+  </si>
+  <si>
+    <t>- Cho phép định nghĩa kiểu dữ liệu trong lúc dùng</t>
+  </si>
+  <si>
+    <t>import java.util.ArrayList;</t>
+  </si>
+  <si>
+    <t>public class Controller&lt;E&gt;{</t>
+  </si>
+  <si>
+    <t>   ArrayList&lt;E&gt; list = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>   publish Controller(){</t>
+  </si>
+  <si>
+    <t>   publish void addEventListener(E e){</t>
+  </si>
+  <si>
+    <t>      list.add(e);</t>
+  </si>
+  <si>
+    <t>   publish E get(int index){</t>
+  </si>
+  <si>
+    <t>      return list.get(index);</t>
+  </si>
+  <si>
+    <t>Controller&lt;String&gt; controller = new Controller&lt;&gt;();</t>
+  </si>
+  <si>
+    <r>
+      <t>controller.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"A"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>publish class Peple {</t>
+  </si>
+  <si>
+    <t>   publish String fullname;</t>
+  </si>
+  <si>
+    <t>public class Student extends Peple{</t>
+  </si>
+  <si>
+    <t>   String rollNo;</t>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>//String fullname;</t>
+    </r>
+  </si>
+  <si>
+    <t>   public Student (String rollNo, String fullname){</t>
+  </si>
+  <si>
+    <t>      this.rollNo = rollNo;</t>
+  </si>
+  <si>
+    <t>      this.fullname = fullname;</t>
+  </si>
+  <si>
+    <t>public class Controller&lt;E extends People&gt;{</t>
+  </si>
+  <si>
+    <t>Controller&lt;Student&gt; controller = new Controller&lt;&gt;();</t>
+  </si>
+  <si>
+    <r>
+      <t>controller.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>new Student("MS01", "van hau")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20436,8 +21884,23 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20489,6 +21952,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20641,7 +22116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -20783,6 +22258,32 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20860,6 +22361,211 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="10953750"/>
+          <a:ext cx="514350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="22564725"/>
+          <a:ext cx="895350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="27117675"/>
+          <a:ext cx="0" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4267200" y="25879425"/>
+          <a:ext cx="2047875" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21116,7 +22822,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -29943,8 +31676,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36505,10 +38238,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D24"/>
+  <dimension ref="A2:AJ162"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S135" sqref="S135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36568,43 +38301,1775 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="75"/>
+      <c r="B27" s="75" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B35" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76" t="s">
+        <v>561</v>
+      </c>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="Q35" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="Q36" s="76" t="s">
+        <v>571</v>
+      </c>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76" t="s">
+        <v>562</v>
+      </c>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B38" s="76" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="Q38" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B39" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Q40" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="76"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B41" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="Q41" s="76" t="s">
+        <v>574</v>
+      </c>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="76"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B42" s="76" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B43" s="76" t="s">
+        <v>568</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="Q43" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="R43" s="76"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="76"/>
+      <c r="AA43" s="76"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B44" s="76"/>
+      <c r="C44" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="Q44" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B47" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="C47" s="78"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B48" s="78" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B49" s="78" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B50" s="78" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>581</v>
+      </c>
+      <c r="N53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B54" s="78" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="80" t="s">
+        <v>585</v>
+      </c>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
+      <c r="AA57" s="79"/>
+      <c r="AB57" s="79"/>
+      <c r="AC57" s="79"/>
+      <c r="AD57" s="79"/>
+      <c r="AE57" s="79"/>
+      <c r="AF57" s="79"/>
+      <c r="AG57" s="79"/>
+      <c r="AH57" s="79"/>
+    </row>
+    <row r="58" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="79"/>
+      <c r="AB58" s="79"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="79"/>
+      <c r="AE58" s="79"/>
+      <c r="AF58" s="79"/>
+      <c r="AG58" s="79"/>
+      <c r="AH58" s="79"/>
+    </row>
+    <row r="59" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="81" t="s">
+        <v>587</v>
+      </c>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="79"/>
+      <c r="W59" s="79"/>
+      <c r="X59" s="79"/>
+      <c r="Y59" s="79"/>
+      <c r="Z59" s="79"/>
+      <c r="AA59" s="79"/>
+      <c r="AB59" s="79"/>
+      <c r="AC59" s="79"/>
+      <c r="AD59" s="79"/>
+      <c r="AE59" s="79"/>
+      <c r="AF59" s="79"/>
+      <c r="AG59" s="79"/>
+      <c r="AH59" s="79"/>
+    </row>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B60" s="82"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="82"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="79"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="79"/>
+      <c r="AE60" s="79"/>
+      <c r="AF60" s="79"/>
+      <c r="AG60" s="79"/>
+      <c r="AH60" s="79"/>
+    </row>
+    <row r="61" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="81" t="s">
+        <v>588</v>
+      </c>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="R61" s="79"/>
+      <c r="S61" s="80" t="s">
+        <v>595</v>
+      </c>
+      <c r="T61" s="79"/>
+      <c r="U61" s="79"/>
+      <c r="V61" s="79"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="79"/>
+      <c r="Y61" s="79"/>
+      <c r="Z61" s="79"/>
+      <c r="AA61" s="79"/>
+      <c r="AB61" s="79"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="79"/>
+      <c r="AE61" s="79"/>
+      <c r="AF61" s="79"/>
+      <c r="AG61" s="79"/>
+      <c r="AH61" s="79"/>
+    </row>
+    <row r="62" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="R62" s="79"/>
+      <c r="S62" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="T62" s="79"/>
+      <c r="U62" s="79"/>
+      <c r="V62" s="79"/>
+      <c r="W62" s="79"/>
+      <c r="X62" s="79"/>
+      <c r="Y62" s="79"/>
+      <c r="Z62" s="79"/>
+      <c r="AA62" s="79"/>
+      <c r="AB62" s="79"/>
+      <c r="AC62" s="79"/>
+      <c r="AD62" s="79"/>
+      <c r="AE62" s="79"/>
+      <c r="AF62" s="79"/>
+      <c r="AG62" s="79"/>
+      <c r="AH62" s="79"/>
+    </row>
+    <row r="63" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="R63" s="79"/>
+      <c r="S63" s="82"/>
+      <c r="T63" s="79"/>
+      <c r="U63" s="79"/>
+      <c r="V63" s="79"/>
+      <c r="W63" s="79"/>
+      <c r="X63" s="79"/>
+      <c r="Y63" s="79"/>
+      <c r="Z63" s="79"/>
+      <c r="AA63" s="79"/>
+      <c r="AB63" s="79"/>
+      <c r="AC63" s="79"/>
+      <c r="AD63" s="79"/>
+      <c r="AE63" s="79"/>
+      <c r="AF63" s="79"/>
+      <c r="AG63" s="79"/>
+      <c r="AH63" s="79"/>
+    </row>
+    <row r="64" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="81" t="s">
+        <v>591</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
+      <c r="R64" s="79"/>
+      <c r="S64" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="T64" s="79"/>
+      <c r="U64" s="79"/>
+      <c r="V64" s="79"/>
+      <c r="W64" s="79"/>
+      <c r="X64" s="79"/>
+      <c r="Y64" s="79"/>
+      <c r="Z64" s="79"/>
+      <c r="AA64" s="79"/>
+      <c r="AB64" s="79"/>
+      <c r="AC64" s="79"/>
+      <c r="AD64" s="79"/>
+      <c r="AE64" s="79"/>
+      <c r="AF64" s="79"/>
+      <c r="AG64" s="79"/>
+      <c r="AH64" s="79"/>
+    </row>
+    <row r="65" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
+      <c r="AA65" s="79"/>
+      <c r="AB65" s="79"/>
+      <c r="AC65" s="79"/>
+      <c r="AD65" s="79"/>
+      <c r="AE65" s="79"/>
+      <c r="AF65" s="79"/>
+      <c r="AG65" s="79"/>
+      <c r="AH65" s="79"/>
+    </row>
+    <row r="67" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="83" t="s">
+        <v>597</v>
+      </c>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="79"/>
+      <c r="S67" s="79"/>
+    </row>
+    <row r="68" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="84" t="s">
+        <v>598</v>
+      </c>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="85" t="s">
+        <v>600</v>
+      </c>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
+      <c r="S68" s="79"/>
+      <c r="T68" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="80" t="s">
+        <v>599</v>
+      </c>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+    </row>
+    <row r="70" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="81" t="s">
+        <v>601</v>
+      </c>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B71" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="87" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="87" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" s="87" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" s="87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80" s="87" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" s="87" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" s="87" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" s="87"/>
+    </row>
+    <row r="84" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" s="87" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" s="87" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" s="87" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="73" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89" s="87" t="s">
+        <v>616</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" s="87" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" s="87" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93" s="75" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C96" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B103" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="60"/>
+      <c r="O103" s="60"/>
+      <c r="P103" s="60"/>
+      <c r="Q103" s="60"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B104" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="88" t="s">
+        <v>634</v>
+      </c>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="60"/>
+      <c r="Q104" s="60"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B105" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="60"/>
+      <c r="P105" s="60"/>
+      <c r="Q105" s="60"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B106" s="60" t="s">
+        <v>635</v>
+      </c>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60"/>
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
+      <c r="Q106" s="60"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B111" s="50" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B112" s="50" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B113" s="50" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B114" s="50" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="115" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B115" s="50" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117" s="75" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B118" s="50" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B120" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="79"/>
+      <c r="I120" s="79"/>
+      <c r="J120" s="79"/>
+      <c r="K120" s="79"/>
+      <c r="L120" s="79"/>
+      <c r="M120" s="79"/>
+    </row>
+    <row r="121" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B121" s="82"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="79"/>
+    </row>
+    <row r="122" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B122" s="80" t="s">
+        <v>641</v>
+      </c>
+      <c r="C122" s="79"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="79"/>
+      <c r="I122" s="79"/>
+      <c r="J122" s="79"/>
+      <c r="K122" s="79"/>
+      <c r="L122" s="79"/>
+      <c r="M122" s="79"/>
+    </row>
+    <row r="123" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B123" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="79"/>
+      <c r="I123" s="79"/>
+      <c r="J123" s="79"/>
+      <c r="K123" s="79"/>
+      <c r="L123" s="79"/>
+      <c r="M123" s="79"/>
+      <c r="Q123" s="80" t="s">
+        <v>648</v>
+      </c>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
+      <c r="T123" s="79"/>
+      <c r="U123" s="79"/>
+      <c r="V123" s="79"/>
+      <c r="W123" s="79"/>
+      <c r="X123" s="79"/>
+      <c r="Y123" s="79"/>
+      <c r="Z123" s="79"/>
+      <c r="AA123" s="79"/>
+      <c r="AB123" s="79"/>
+      <c r="AC123" s="79"/>
+      <c r="AD123" s="79"/>
+    </row>
+    <row r="124" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B124" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="C124" s="79"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79"/>
+      <c r="I124" s="79"/>
+      <c r="J124" s="79"/>
+      <c r="K124" s="79"/>
+      <c r="L124" s="79"/>
+      <c r="M124" s="79"/>
+      <c r="Q124" s="80" t="s">
+        <v>649</v>
+      </c>
+      <c r="R124" s="79"/>
+      <c r="S124" s="79"/>
+      <c r="T124" s="79"/>
+      <c r="U124" s="79"/>
+      <c r="V124" s="79"/>
+      <c r="W124" s="79"/>
+      <c r="X124" s="79"/>
+      <c r="Y124" s="79"/>
+      <c r="Z124" s="79"/>
+      <c r="AA124" s="79"/>
+      <c r="AB124" s="79"/>
+      <c r="AC124" s="79"/>
+      <c r="AD124" s="79"/>
+    </row>
+    <row r="125" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B125" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C125" s="79"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="79"/>
+      <c r="I125" s="79"/>
+      <c r="J125" s="79"/>
+      <c r="K125" s="79"/>
+      <c r="L125" s="79"/>
+      <c r="M125" s="79"/>
+      <c r="Q125" s="79"/>
+      <c r="R125" s="79"/>
+      <c r="S125" s="79"/>
+      <c r="T125" s="79"/>
+      <c r="U125" s="79"/>
+      <c r="V125" s="79"/>
+      <c r="W125" s="79"/>
+      <c r="X125" s="79"/>
+      <c r="Y125" s="79"/>
+      <c r="Z125" s="79"/>
+      <c r="AA125" s="79"/>
+      <c r="AB125" s="79"/>
+      <c r="AC125" s="79"/>
+      <c r="AD125" s="79"/>
+    </row>
+    <row r="126" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B126" s="80" t="s">
+        <v>644</v>
+      </c>
+      <c r="C126" s="79"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="79"/>
+      <c r="I126" s="79"/>
+      <c r="J126" s="79"/>
+      <c r="K126" s="79"/>
+      <c r="L126" s="79"/>
+      <c r="M126" s="79"/>
+    </row>
+    <row r="127" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B127" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="C127" s="79"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="79"/>
+      <c r="I127" s="79"/>
+      <c r="J127" s="79"/>
+      <c r="K127" s="79"/>
+      <c r="L127" s="79"/>
+      <c r="M127" s="79"/>
+    </row>
+    <row r="128" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+      <c r="B128" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C128" s="79"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="79"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="79"/>
+      <c r="H128" s="79"/>
+      <c r="I128" s="79"/>
+      <c r="J128" s="79"/>
+      <c r="K128" s="79"/>
+      <c r="L128" s="79"/>
+      <c r="M128" s="79"/>
+    </row>
+    <row r="129" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B129" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="C129" s="79"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="79"/>
+      <c r="H129" s="79"/>
+      <c r="I129" s="79"/>
+      <c r="J129" s="79"/>
+      <c r="K129" s="79"/>
+      <c r="L129" s="79"/>
+      <c r="M129" s="79"/>
+    </row>
+    <row r="130" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B130" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="C130" s="79"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="79"/>
+      <c r="I130" s="79"/>
+      <c r="J130" s="79"/>
+      <c r="K130" s="79"/>
+      <c r="L130" s="79"/>
+      <c r="M130" s="79"/>
+    </row>
+    <row r="131" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B131" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C131" s="79"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="79"/>
+      <c r="H131" s="79"/>
+      <c r="I131" s="79"/>
+      <c r="J131" s="79"/>
+      <c r="K131" s="79"/>
+      <c r="L131" s="79"/>
+      <c r="M131" s="79"/>
+    </row>
+    <row r="135" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B135" s="80" t="s">
+        <v>650</v>
+      </c>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="79"/>
+      <c r="H135" s="79"/>
+      <c r="I135" s="79"/>
+      <c r="J135" s="79"/>
+      <c r="K135" s="79"/>
+      <c r="L135" s="79"/>
+      <c r="M135" s="79"/>
+      <c r="N135" s="79"/>
+      <c r="O135" s="79"/>
+      <c r="P135" s="79"/>
+    </row>
+    <row r="136" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B136" s="80" t="s">
+        <v>651</v>
+      </c>
+      <c r="C136" s="79"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="79"/>
+      <c r="H136" s="79"/>
+      <c r="I136" s="79"/>
+      <c r="J136" s="79"/>
+      <c r="K136" s="79"/>
+      <c r="L136" s="79"/>
+      <c r="M136" s="79"/>
+      <c r="N136" s="79"/>
+      <c r="O136" s="79"/>
+      <c r="P136" s="79"/>
+    </row>
+    <row r="137" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B137" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="79"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
+      <c r="J137" s="79"/>
+      <c r="K137" s="79"/>
+      <c r="L137" s="79"/>
+      <c r="M137" s="79"/>
+      <c r="N137" s="79"/>
+      <c r="O137" s="79"/>
+      <c r="P137" s="79"/>
+    </row>
+    <row r="138" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B138" s="82"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
+      <c r="H138" s="79"/>
+      <c r="I138" s="79"/>
+      <c r="J138" s="79"/>
+      <c r="K138" s="79"/>
+      <c r="L138" s="79"/>
+      <c r="M138" s="79"/>
+      <c r="N138" s="79"/>
+      <c r="O138" s="79"/>
+      <c r="P138" s="79"/>
+    </row>
+    <row r="139" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B139" s="80" t="s">
+        <v>652</v>
+      </c>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="79"/>
+      <c r="J139" s="79"/>
+      <c r="K139" s="79"/>
+      <c r="L139" s="79"/>
+      <c r="M139" s="79"/>
+      <c r="N139" s="79"/>
+      <c r="O139" s="79"/>
+      <c r="P139" s="79"/>
+      <c r="W139" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="X139" s="79"/>
+      <c r="Y139" s="79"/>
+      <c r="Z139" s="79"/>
+      <c r="AA139" s="79"/>
+      <c r="AB139" s="79"/>
+      <c r="AC139" s="79"/>
+      <c r="AD139" s="79"/>
+      <c r="AE139" s="79"/>
+      <c r="AF139" s="79"/>
+      <c r="AG139" s="79"/>
+      <c r="AH139" s="79"/>
+      <c r="AI139" s="79"/>
+      <c r="AJ139" s="79"/>
+    </row>
+    <row r="140" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B140" s="80" t="s">
+        <v>653</v>
+      </c>
+      <c r="C140" s="79"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="79"/>
+      <c r="G140" s="79"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="79"/>
+      <c r="J140" s="79"/>
+      <c r="K140" s="79"/>
+      <c r="L140" s="79"/>
+      <c r="M140" s="79"/>
+      <c r="N140" s="79"/>
+      <c r="O140" s="79"/>
+      <c r="P140" s="79"/>
+      <c r="W140" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="X140" s="79"/>
+      <c r="Y140" s="79"/>
+      <c r="Z140" s="79"/>
+      <c r="AA140" s="79"/>
+      <c r="AB140" s="79"/>
+      <c r="AC140" s="79"/>
+      <c r="AD140" s="79"/>
+      <c r="AE140" s="79"/>
+      <c r="AF140" s="79"/>
+      <c r="AG140" s="79"/>
+      <c r="AH140" s="79"/>
+      <c r="AI140" s="79"/>
+      <c r="AJ140" s="79"/>
+    </row>
+    <row r="141" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B141" s="80" t="s">
+        <v>654</v>
+      </c>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="79"/>
+      <c r="I141" s="79"/>
+      <c r="J141" s="79"/>
+      <c r="K141" s="79"/>
+      <c r="L141" s="79"/>
+      <c r="M141" s="79"/>
+      <c r="N141" s="79"/>
+      <c r="O141" s="79"/>
+      <c r="P141" s="79"/>
+      <c r="W141" s="79"/>
+      <c r="X141" s="79"/>
+      <c r="Y141" s="79"/>
+      <c r="Z141" s="79"/>
+      <c r="AA141" s="79"/>
+      <c r="AB141" s="79"/>
+      <c r="AC141" s="79"/>
+      <c r="AD141" s="79"/>
+      <c r="AE141" s="79"/>
+      <c r="AF141" s="79"/>
+      <c r="AG141" s="79"/>
+      <c r="AH141" s="79"/>
+      <c r="AI141" s="79"/>
+      <c r="AJ141" s="79"/>
+    </row>
+    <row r="142" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B142" s="82"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="79"/>
+      <c r="J142" s="79"/>
+      <c r="K142" s="79"/>
+      <c r="L142" s="79"/>
+      <c r="M142" s="79"/>
+      <c r="N142" s="79"/>
+      <c r="O142" s="79"/>
+      <c r="P142" s="79"/>
+    </row>
+    <row r="143" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B143" s="80" t="s">
+        <v>655</v>
+      </c>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="79"/>
+      <c r="H143" s="79"/>
+      <c r="I143" s="79"/>
+      <c r="J143" s="79"/>
+      <c r="K143" s="79"/>
+      <c r="L143" s="79"/>
+      <c r="M143" s="79"/>
+      <c r="N143" s="79"/>
+      <c r="O143" s="79"/>
+      <c r="P143" s="79"/>
+    </row>
+    <row r="144" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="B144" s="80" t="s">
+        <v>656</v>
+      </c>
+      <c r="C144" s="79"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
+      <c r="K144" s="79"/>
+      <c r="L144" s="79"/>
+      <c r="M144" s="79"/>
+      <c r="N144" s="79"/>
+      <c r="O144" s="79"/>
+      <c r="P144" s="79"/>
+    </row>
+    <row r="145" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B145" s="80" t="s">
+        <v>657</v>
+      </c>
+      <c r="C145" s="79"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
+      <c r="J145" s="79"/>
+      <c r="K145" s="79"/>
+      <c r="L145" s="79"/>
+      <c r="M145" s="79"/>
+      <c r="N145" s="79"/>
+      <c r="O145" s="79"/>
+      <c r="P145" s="79"/>
+    </row>
+    <row r="146" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B146" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C146" s="79"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="79"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="79"/>
+      <c r="I146" s="79"/>
+      <c r="J146" s="79"/>
+      <c r="K146" s="79"/>
+      <c r="L146" s="79"/>
+      <c r="M146" s="79"/>
+      <c r="N146" s="79"/>
+      <c r="O146" s="79"/>
+      <c r="P146" s="79"/>
+    </row>
+    <row r="147" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B147" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="79"/>
+      <c r="D147" s="79"/>
+      <c r="E147" s="79"/>
+      <c r="F147" s="79"/>
+      <c r="G147" s="79"/>
+      <c r="H147" s="79"/>
+      <c r="I147" s="79"/>
+      <c r="J147" s="79"/>
+      <c r="K147" s="79"/>
+      <c r="L147" s="79"/>
+      <c r="M147" s="79"/>
+      <c r="N147" s="79"/>
+      <c r="O147" s="79"/>
+      <c r="P147" s="79"/>
+    </row>
+    <row r="152" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B152" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="79"/>
+      <c r="H152" s="79"/>
+      <c r="I152" s="79"/>
+      <c r="J152" s="79"/>
+      <c r="K152" s="79"/>
+      <c r="L152" s="79"/>
+      <c r="M152" s="79"/>
+      <c r="N152" s="79"/>
+      <c r="O152" s="79"/>
+    </row>
+    <row r="153" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B153" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="C153" s="79"/>
+      <c r="D153" s="79"/>
+      <c r="E153" s="79"/>
+      <c r="F153" s="79"/>
+      <c r="G153" s="79"/>
+      <c r="H153" s="79"/>
+      <c r="I153" s="79"/>
+      <c r="J153" s="79"/>
+      <c r="K153" s="79"/>
+      <c r="L153" s="79"/>
+      <c r="M153" s="79"/>
+      <c r="N153" s="79"/>
+      <c r="O153" s="79"/>
+    </row>
+    <row r="154" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B154" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="C154" s="79"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
+      <c r="F154" s="79"/>
+      <c r="G154" s="79"/>
+      <c r="H154" s="79"/>
+      <c r="I154" s="79"/>
+      <c r="J154" s="79"/>
+      <c r="K154" s="79"/>
+      <c r="L154" s="79"/>
+      <c r="M154" s="79"/>
+      <c r="N154" s="79"/>
+      <c r="O154" s="79"/>
+    </row>
+    <row r="155" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B155" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C155" s="79"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="79"/>
+      <c r="H155" s="79"/>
+      <c r="I155" s="79"/>
+      <c r="J155" s="79"/>
+      <c r="K155" s="79"/>
+      <c r="L155" s="79"/>
+      <c r="M155" s="79"/>
+      <c r="N155" s="79"/>
+      <c r="O155" s="79"/>
+    </row>
+    <row r="156" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B156" s="80" t="s">
+        <v>644</v>
+      </c>
+      <c r="C156" s="79"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
+      <c r="I156" s="79"/>
+      <c r="J156" s="79"/>
+      <c r="K156" s="79"/>
+      <c r="L156" s="79"/>
+      <c r="M156" s="79"/>
+      <c r="N156" s="79"/>
+      <c r="O156" s="79"/>
+    </row>
+    <row r="157" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B157" s="80" t="s">
+        <v>645</v>
+      </c>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79"/>
+      <c r="J157" s="79"/>
+      <c r="K157" s="79"/>
+      <c r="L157" s="79"/>
+      <c r="M157" s="79"/>
+      <c r="N157" s="79"/>
+      <c r="O157" s="79"/>
+    </row>
+    <row r="158" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B158" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="79"/>
+      <c r="O158" s="79"/>
+    </row>
+    <row r="159" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B159" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="79"/>
+      <c r="H159" s="79"/>
+      <c r="I159" s="79"/>
+      <c r="J159" s="79"/>
+      <c r="K159" s="79"/>
+      <c r="L159" s="79"/>
+      <c r="M159" s="79"/>
+      <c r="N159" s="79"/>
+      <c r="O159" s="79"/>
+    </row>
+    <row r="160" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B160" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="C160" s="79"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
+      <c r="F160" s="79"/>
+      <c r="G160" s="79"/>
+      <c r="H160" s="79"/>
+      <c r="I160" s="79"/>
+      <c r="J160" s="79"/>
+      <c r="K160" s="79"/>
+      <c r="L160" s="79"/>
+      <c r="M160" s="79"/>
+      <c r="N160" s="79"/>
+      <c r="O160" s="79"/>
+    </row>
+    <row r="161" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B161" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C161" s="79"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="79"/>
+      <c r="F161" s="79"/>
+      <c r="G161" s="79"/>
+      <c r="H161" s="79"/>
+      <c r="I161" s="79"/>
+      <c r="J161" s="79"/>
+      <c r="K161" s="79"/>
+      <c r="L161" s="79"/>
+      <c r="M161" s="79"/>
+      <c r="N161" s="79"/>
+      <c r="O161" s="79"/>
+    </row>
+    <row r="162" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B162" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="79"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="79"/>
+      <c r="H162" s="79"/>
+      <c r="I162" s="79"/>
+      <c r="J162" s="79"/>
+      <c r="K162" s="79"/>
+      <c r="L162" s="79"/>
+      <c r="M162" s="79"/>
+      <c r="N162" s="79"/>
+      <c r="O162" s="79"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G35:L35"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/typescript.xlsx
+++ b/typescript.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" tabRatio="876" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" tabRatio="876" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ES6" sheetId="1" r:id="rId1"/>
     <sheet name="freecodecam" sheetId="11" r:id="rId2"/>
     <sheet name="Typescript" sheetId="3" r:id="rId3"/>
     <sheet name="java" sheetId="9" r:id="rId4"/>
-    <sheet name="thuyettrinh" sheetId="7" r:id="rId5"/>
-    <sheet name="angularjs" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
-    <sheet name="Class1" sheetId="5" r:id="rId8"/>
-    <sheet name="Class2" sheetId="6" r:id="rId9"/>
-    <sheet name="angular" sheetId="2" r:id="rId10"/>
-    <sheet name="av4" sheetId="4" r:id="rId11"/>
+    <sheet name="java_nangcao" sheetId="12" r:id="rId5"/>
+    <sheet name="thuyettrinh" sheetId="7" r:id="rId6"/>
+    <sheet name="angularjs" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="Class1" sheetId="5" r:id="rId9"/>
+    <sheet name="Class2" sheetId="6" r:id="rId10"/>
+    <sheet name="angular" sheetId="2" r:id="rId11"/>
+    <sheet name="av4" sheetId="4" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">angular!$A$1:$AD$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">angular!$A$1:$AD$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ES6'!$A$1:$AM$368</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">java!$A$1:$AP$165</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Typescript!$A$1:$AT$312</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="676">
   <si>
     <t>TYPESCRIPT</t>
   </si>
@@ -21686,6 +21687,51 @@
       </rPr>
       <t>);</t>
     </r>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Kiểu số nguyên </t>
+  </si>
+  <si>
+    <t>- byte range [ -(2^7), 2^7-1]  8bit (1byte)</t>
+  </si>
+  <si>
+    <t>- short range [ -(2^15), 2^15-1] 16bit (2byte)</t>
+  </si>
+  <si>
+    <t>- int range [ - (2^31), 2^31-1] 32bit (4byte)</t>
+  </si>
+  <si>
+    <t>- long range [ -(2^63), 2^63-1] 64bit (8byte)</t>
+  </si>
+  <si>
+    <t>(-2147483648, 2147483647)</t>
+  </si>
+  <si>
+    <t>(-128 , 127)</t>
+  </si>
+  <si>
+    <t>2/ Kiểu dấu phẩy động</t>
+  </si>
+  <si>
+    <t>- double 8bytes (64bits)</t>
+  </si>
+  <si>
+    <t>- float 4 bytes (32bits)</t>
+  </si>
+  <si>
+    <t>3/ Kiểu ký tự</t>
+  </si>
+  <si>
+    <t>- char 2 bytes</t>
+  </si>
+  <si>
+    <t>- boolean 1 bit</t>
+  </si>
+  <si>
+    <t>4. String</t>
   </si>
 </sst>
 </file>
@@ -22255,14 +22301,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -22284,6 +22324,12 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -31673,6 +31719,2366 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AB91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
+      <c r="B10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+    </row>
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+    </row>
+    <row r="33" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+    </row>
+    <row r="34" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+    </row>
+    <row r="35" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+    </row>
+    <row r="36" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+    </row>
+    <row r="37" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+    </row>
+    <row r="39" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+    </row>
+    <row r="40" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C48" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+    </row>
+    <row r="49" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C49" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C50" s="45"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+    </row>
+    <row r="51" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C51" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+    </row>
+    <row r="52" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C52" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+    </row>
+    <row r="53" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C53" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+    </row>
+    <row r="54" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C54" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+    </row>
+    <row r="55" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C55" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C56" s="45"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+    </row>
+    <row r="57" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C57" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+    </row>
+    <row r="58" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C58" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C59" s="45"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+    </row>
+    <row r="60" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C60" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C61" s="45"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+    </row>
+    <row r="62" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C62" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+    </row>
+    <row r="63" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C63" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+    </row>
+    <row r="64" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C64" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+    </row>
+    <row r="65" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C65" s="45"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
+    </row>
+    <row r="66" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C66" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
+    </row>
+    <row r="67" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C67" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
+      <c r="AB67" s="52"/>
+    </row>
+    <row r="68" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C68" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="52"/>
+      <c r="AB68" s="52"/>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C69" s="45"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+    </row>
+    <row r="70" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C70" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+    </row>
+    <row r="71" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C71" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="52"/>
+      <c r="AB71" s="52"/>
+    </row>
+    <row r="72" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C72" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+    </row>
+    <row r="73" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C73" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="52"/>
+    </row>
+    <row r="74" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C74" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="52"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
+      <c r="W74" s="52"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="52"/>
+    </row>
+    <row r="75" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C75" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="52"/>
+      <c r="U75" s="52"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="52"/>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+    </row>
+    <row r="76" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C76" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="52"/>
+      <c r="U76" s="52"/>
+      <c r="V76" s="52"/>
+      <c r="W76" s="52"/>
+      <c r="X76" s="52"/>
+      <c r="Y76" s="52"/>
+      <c r="Z76" s="52"/>
+      <c r="AA76" s="52"/>
+      <c r="AB76" s="52"/>
+    </row>
+    <row r="77" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C77" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="52"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="52"/>
+      <c r="U77" s="52"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="52"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="52"/>
+      <c r="Z77" s="52"/>
+      <c r="AA77" s="52"/>
+      <c r="AB77" s="52"/>
+    </row>
+    <row r="78" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C78" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="52"/>
+      <c r="U78" s="52"/>
+      <c r="V78" s="52"/>
+      <c r="W78" s="52"/>
+      <c r="X78" s="52"/>
+      <c r="Y78" s="52"/>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="52"/>
+      <c r="AB78" s="52"/>
+    </row>
+    <row r="79" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C79" s="45"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="52"/>
+      <c r="R79" s="52"/>
+      <c r="S79" s="52"/>
+      <c r="T79" s="52"/>
+      <c r="U79" s="52"/>
+      <c r="V79" s="52"/>
+      <c r="W79" s="52"/>
+      <c r="X79" s="52"/>
+      <c r="Y79" s="52"/>
+      <c r="Z79" s="52"/>
+      <c r="AA79" s="52"/>
+      <c r="AB79" s="52"/>
+    </row>
+    <row r="80" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C80" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="52"/>
+      <c r="R80" s="52"/>
+      <c r="S80" s="52"/>
+      <c r="T80" s="52"/>
+      <c r="U80" s="52"/>
+      <c r="V80" s="52"/>
+      <c r="W80" s="52"/>
+      <c r="X80" s="52"/>
+      <c r="Y80" s="52"/>
+      <c r="Z80" s="52"/>
+      <c r="AA80" s="52"/>
+      <c r="AB80" s="52"/>
+    </row>
+    <row r="81" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C81" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="52"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
+      <c r="R81" s="52"/>
+      <c r="S81" s="52"/>
+      <c r="T81" s="52"/>
+      <c r="U81" s="52"/>
+      <c r="V81" s="52"/>
+      <c r="W81" s="52"/>
+      <c r="X81" s="52"/>
+      <c r="Y81" s="52"/>
+      <c r="Z81" s="52"/>
+      <c r="AA81" s="52"/>
+      <c r="AB81" s="52"/>
+    </row>
+    <row r="82" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C82" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="52"/>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="52"/>
+      <c r="R82" s="52"/>
+      <c r="S82" s="52"/>
+      <c r="T82" s="52"/>
+      <c r="U82" s="52"/>
+      <c r="V82" s="52"/>
+      <c r="W82" s="52"/>
+      <c r="X82" s="52"/>
+      <c r="Y82" s="52"/>
+      <c r="Z82" s="52"/>
+      <c r="AA82" s="52"/>
+      <c r="AB82" s="52"/>
+    </row>
+    <row r="83" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C83" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="52"/>
+      <c r="R83" s="52"/>
+      <c r="S83" s="52"/>
+      <c r="T83" s="52"/>
+      <c r="U83" s="52"/>
+      <c r="V83" s="52"/>
+      <c r="W83" s="52"/>
+      <c r="X83" s="52"/>
+      <c r="Y83" s="52"/>
+      <c r="Z83" s="52"/>
+      <c r="AA83" s="52"/>
+      <c r="AB83" s="52"/>
+    </row>
+    <row r="84" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C84" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="52"/>
+      <c r="R84" s="52"/>
+      <c r="S84" s="52"/>
+      <c r="T84" s="52"/>
+      <c r="U84" s="52"/>
+      <c r="V84" s="52"/>
+      <c r="W84" s="52"/>
+      <c r="X84" s="52"/>
+      <c r="Y84" s="52"/>
+      <c r="Z84" s="52"/>
+      <c r="AA84" s="52"/>
+      <c r="AB84" s="52"/>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C85" s="45"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="52"/>
+      <c r="O85" s="52"/>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="52"/>
+      <c r="R85" s="52"/>
+      <c r="S85" s="52"/>
+      <c r="T85" s="52"/>
+      <c r="U85" s="52"/>
+      <c r="V85" s="52"/>
+      <c r="W85" s="52"/>
+      <c r="X85" s="52"/>
+      <c r="Y85" s="52"/>
+      <c r="Z85" s="52"/>
+      <c r="AA85" s="52"/>
+      <c r="AB85" s="52"/>
+    </row>
+    <row r="86" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C86" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
+      <c r="R86" s="52"/>
+      <c r="S86" s="52"/>
+      <c r="T86" s="52"/>
+      <c r="U86" s="52"/>
+      <c r="V86" s="52"/>
+      <c r="W86" s="52"/>
+      <c r="X86" s="52"/>
+      <c r="Y86" s="52"/>
+      <c r="Z86" s="52"/>
+      <c r="AA86" s="52"/>
+      <c r="AB86" s="52"/>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C87" s="45"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="52"/>
+      <c r="V87" s="52"/>
+      <c r="W87" s="52"/>
+      <c r="X87" s="52"/>
+      <c r="Y87" s="52"/>
+      <c r="Z87" s="52"/>
+      <c r="AA87" s="52"/>
+      <c r="AB87" s="52"/>
+    </row>
+    <row r="88" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C88" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="52"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="52"/>
+      <c r="R88" s="52"/>
+      <c r="S88" s="52"/>
+      <c r="T88" s="52"/>
+      <c r="U88" s="52"/>
+      <c r="V88" s="52"/>
+      <c r="W88" s="52"/>
+      <c r="X88" s="52"/>
+      <c r="Y88" s="52"/>
+      <c r="Z88" s="52"/>
+      <c r="AA88" s="52"/>
+      <c r="AB88" s="52"/>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C89" s="45"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="52"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="52"/>
+      <c r="R89" s="52"/>
+      <c r="S89" s="52"/>
+      <c r="T89" s="52"/>
+      <c r="U89" s="52"/>
+      <c r="V89" s="52"/>
+      <c r="W89" s="52"/>
+      <c r="X89" s="52"/>
+      <c r="Y89" s="52"/>
+      <c r="Z89" s="52"/>
+      <c r="AA89" s="52"/>
+      <c r="AB89" s="52"/>
+    </row>
+    <row r="90" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C90" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="52"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
+      <c r="R90" s="52"/>
+      <c r="S90" s="52"/>
+      <c r="T90" s="52"/>
+      <c r="U90" s="52"/>
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="52"/>
+      <c r="Z90" s="52"/>
+      <c r="AA90" s="52"/>
+      <c r="AB90" s="52"/>
+    </row>
+    <row r="91" spans="3:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="C91" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="52"/>
+      <c r="O91" s="52"/>
+      <c r="P91" s="52"/>
+      <c r="Q91" s="52"/>
+      <c r="R91" s="52"/>
+      <c r="S91" s="52"/>
+      <c r="T91" s="52"/>
+      <c r="U91" s="52"/>
+      <c r="V91" s="52"/>
+      <c r="W91" s="52"/>
+      <c r="X91" s="52"/>
+      <c r="Y91" s="52"/>
+      <c r="Z91" s="52"/>
+      <c r="AA91" s="52"/>
+      <c r="AB91" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:I12"/>
   <sheetViews>
@@ -31732,7 +34138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2"/>
@@ -31767,918 +34173,918 @@
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
     </row>
     <row r="3" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
     </row>
     <row r="4" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="74"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="74"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="74"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="74"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="74"/>
-      <c r="AJ23" s="74"/>
-      <c r="AK23" s="74"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="74"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="87"/>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="74"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -38240,8 +40646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S135" sqref="S135"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S136" sqref="S136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38332,8 +40738,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74" t="s">
         <v>553</v>
       </c>
     </row>
@@ -38368,270 +40774,270 @@
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="75" t="s">
         <v>560</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76" t="s">
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77" t="s">
+      <c r="F35" s="75"/>
+      <c r="G35" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="Q35" s="76" t="s">
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="Q35" s="75" t="s">
         <v>570</v>
       </c>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="76"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76" t="s">
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="Q36" s="76" t="s">
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="Q36" s="75" t="s">
         <v>571</v>
       </c>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76" t="s">
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>563</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="Q38" s="76" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="Q38" s="75" t="s">
         <v>572</v>
       </c>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="76"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="76"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="Q40" s="76" t="s">
+      <c r="Q40" s="75" t="s">
         <v>573</v>
       </c>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="76"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="76"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="75" t="s">
         <v>566</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="Q41" s="76" t="s">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="Q41" s="75" t="s">
         <v>574</v>
       </c>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="76"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="Q43" s="76" t="s">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="Q43" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="R43" s="76"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="76"/>
-      <c r="W43" s="76"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="76"/>
-      <c r="AA43" s="76"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="75"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="76"/>
-      <c r="C44" s="76" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="75" t="s">
         <v>569</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="Q44" s="76" t="s">
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="Q44" s="75" t="s">
         <v>576</v>
       </c>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="76"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="75"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="76" t="s">
         <v>602</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="76"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="76" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="76" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="76" t="s">
         <v>579</v>
       </c>
     </row>
@@ -38649,7 +41055,7 @@
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="76" t="s">
         <v>582</v>
       </c>
     </row>
@@ -38659,444 +41065,444 @@
       </c>
     </row>
     <row r="57" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="R57" s="79"/>
-      <c r="S57" s="80" t="s">
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="78" t="s">
         <v>592</v>
       </c>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="79"/>
-      <c r="W57" s="79"/>
-      <c r="X57" s="79"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="79"/>
-      <c r="AA57" s="79"/>
-      <c r="AB57" s="79"/>
-      <c r="AC57" s="79"/>
-      <c r="AD57" s="79"/>
-      <c r="AE57" s="79"/>
-      <c r="AF57" s="79"/>
-      <c r="AG57" s="79"/>
-      <c r="AH57" s="79"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="77"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="77"/>
     </row>
     <row r="58" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="79" t="s">
         <v>586</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="80" t="s">
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="78" t="s">
         <v>593</v>
       </c>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-      <c r="AA58" s="79"/>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
-      <c r="AD58" s="79"/>
-      <c r="AE58" s="79"/>
-      <c r="AF58" s="79"/>
-      <c r="AG58" s="79"/>
-      <c r="AH58" s="79"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="77"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
+      <c r="X58" s="77"/>
+      <c r="Y58" s="77"/>
+      <c r="Z58" s="77"/>
+      <c r="AA58" s="77"/>
+      <c r="AB58" s="77"/>
+      <c r="AC58" s="77"/>
+      <c r="AD58" s="77"/>
+      <c r="AE58" s="77"/>
+      <c r="AF58" s="77"/>
+      <c r="AG58" s="77"/>
+      <c r="AH58" s="77"/>
     </row>
     <row r="59" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="79" t="s">
         <v>587</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="80" t="s">
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="78" t="s">
         <v>594</v>
       </c>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-      <c r="AA59" s="79"/>
-      <c r="AB59" s="79"/>
-      <c r="AC59" s="79"/>
-      <c r="AD59" s="79"/>
-      <c r="AE59" s="79"/>
-      <c r="AF59" s="79"/>
-      <c r="AG59" s="79"/>
-      <c r="AH59" s="79"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="77"/>
+      <c r="W59" s="77"/>
+      <c r="X59" s="77"/>
+      <c r="Y59" s="77"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="77"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="77"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="77"/>
+      <c r="AH59" s="77"/>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B60" s="82"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="R60" s="79"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="79"/>
-      <c r="V60" s="79"/>
-      <c r="W60" s="79"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="79"/>
-      <c r="Z60" s="79"/>
-      <c r="AA60" s="79"/>
-      <c r="AB60" s="79"/>
-      <c r="AC60" s="79"/>
-      <c r="AD60" s="79"/>
-      <c r="AE60" s="79"/>
-      <c r="AF60" s="79"/>
-      <c r="AG60" s="79"/>
-      <c r="AH60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="77"/>
+      <c r="W60" s="77"/>
+      <c r="X60" s="77"/>
+      <c r="Y60" s="77"/>
+      <c r="Z60" s="77"/>
+      <c r="AA60" s="77"/>
+      <c r="AB60" s="77"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="77"/>
+      <c r="AE60" s="77"/>
+      <c r="AF60" s="77"/>
+      <c r="AG60" s="77"/>
+      <c r="AH60" s="77"/>
     </row>
     <row r="61" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="79" t="s">
         <v>588</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="R61" s="79"/>
-      <c r="S61" s="80" t="s">
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="78" t="s">
         <v>595</v>
       </c>
-      <c r="T61" s="79"/>
-      <c r="U61" s="79"/>
-      <c r="V61" s="79"/>
-      <c r="W61" s="79"/>
-      <c r="X61" s="79"/>
-      <c r="Y61" s="79"/>
-      <c r="Z61" s="79"/>
-      <c r="AA61" s="79"/>
-      <c r="AB61" s="79"/>
-      <c r="AC61" s="79"/>
-      <c r="AD61" s="79"/>
-      <c r="AE61" s="79"/>
-      <c r="AF61" s="79"/>
-      <c r="AG61" s="79"/>
-      <c r="AH61" s="79"/>
+      <c r="T61" s="77"/>
+      <c r="U61" s="77"/>
+      <c r="V61" s="77"/>
+      <c r="W61" s="77"/>
+      <c r="X61" s="77"/>
+      <c r="Y61" s="77"/>
+      <c r="Z61" s="77"/>
+      <c r="AA61" s="77"/>
+      <c r="AB61" s="77"/>
+      <c r="AC61" s="77"/>
+      <c r="AD61" s="77"/>
+      <c r="AE61" s="77"/>
+      <c r="AF61" s="77"/>
+      <c r="AG61" s="77"/>
+      <c r="AH61" s="77"/>
     </row>
     <row r="62" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="R62" s="79"/>
-      <c r="S62" s="80" t="s">
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="78" t="s">
         <v>594</v>
       </c>
-      <c r="T62" s="79"/>
-      <c r="U62" s="79"/>
-      <c r="V62" s="79"/>
-      <c r="W62" s="79"/>
-      <c r="X62" s="79"/>
-      <c r="Y62" s="79"/>
-      <c r="Z62" s="79"/>
-      <c r="AA62" s="79"/>
-      <c r="AB62" s="79"/>
-      <c r="AC62" s="79"/>
-      <c r="AD62" s="79"/>
-      <c r="AE62" s="79"/>
-      <c r="AF62" s="79"/>
-      <c r="AG62" s="79"/>
-      <c r="AH62" s="79"/>
+      <c r="T62" s="77"/>
+      <c r="U62" s="77"/>
+      <c r="V62" s="77"/>
+      <c r="W62" s="77"/>
+      <c r="X62" s="77"/>
+      <c r="Y62" s="77"/>
+      <c r="Z62" s="77"/>
+      <c r="AA62" s="77"/>
+      <c r="AB62" s="77"/>
+      <c r="AC62" s="77"/>
+      <c r="AD62" s="77"/>
+      <c r="AE62" s="77"/>
+      <c r="AF62" s="77"/>
+      <c r="AG62" s="77"/>
+      <c r="AH62" s="77"/>
     </row>
     <row r="63" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="79" t="s">
         <v>590</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79"/>
-      <c r="R63" s="79"/>
-      <c r="S63" s="82"/>
-      <c r="T63" s="79"/>
-      <c r="U63" s="79"/>
-      <c r="V63" s="79"/>
-      <c r="W63" s="79"/>
-      <c r="X63" s="79"/>
-      <c r="Y63" s="79"/>
-      <c r="Z63" s="79"/>
-      <c r="AA63" s="79"/>
-      <c r="AB63" s="79"/>
-      <c r="AC63" s="79"/>
-      <c r="AD63" s="79"/>
-      <c r="AE63" s="79"/>
-      <c r="AF63" s="79"/>
-      <c r="AG63" s="79"/>
-      <c r="AH63" s="79"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="77"/>
+      <c r="X63" s="77"/>
+      <c r="Y63" s="77"/>
+      <c r="Z63" s="77"/>
+      <c r="AA63" s="77"/>
+      <c r="AB63" s="77"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="77"/>
     </row>
     <row r="64" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="79" t="s">
         <v>591</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
-      <c r="R64" s="79"/>
-      <c r="S64" s="80" t="s">
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="78" t="s">
         <v>596</v>
       </c>
-      <c r="T64" s="79"/>
-      <c r="U64" s="79"/>
-      <c r="V64" s="79"/>
-      <c r="W64" s="79"/>
-      <c r="X64" s="79"/>
-      <c r="Y64" s="79"/>
-      <c r="Z64" s="79"/>
-      <c r="AA64" s="79"/>
-      <c r="AB64" s="79"/>
-      <c r="AC64" s="79"/>
-      <c r="AD64" s="79"/>
-      <c r="AE64" s="79"/>
-      <c r="AF64" s="79"/>
-      <c r="AG64" s="79"/>
-      <c r="AH64" s="79"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="77"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
+      <c r="AB64" s="77"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="77"/>
+      <c r="AH64" s="77"/>
     </row>
     <row r="65" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79"/>
-      <c r="R65" s="79"/>
-      <c r="S65" s="79"/>
-      <c r="T65" s="79"/>
-      <c r="U65" s="79"/>
-      <c r="V65" s="79"/>
-      <c r="W65" s="79"/>
-      <c r="X65" s="79"/>
-      <c r="Y65" s="79"/>
-      <c r="Z65" s="79"/>
-      <c r="AA65" s="79"/>
-      <c r="AB65" s="79"/>
-      <c r="AC65" s="79"/>
-      <c r="AD65" s="79"/>
-      <c r="AE65" s="79"/>
-      <c r="AF65" s="79"/>
-      <c r="AG65" s="79"/>
-      <c r="AH65" s="79"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="77"/>
+      <c r="T65" s="77"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="77"/>
+      <c r="W65" s="77"/>
+      <c r="X65" s="77"/>
+      <c r="Y65" s="77"/>
+      <c r="Z65" s="77"/>
+      <c r="AA65" s="77"/>
+      <c r="AB65" s="77"/>
+      <c r="AC65" s="77"/>
+      <c r="AD65" s="77"/>
+      <c r="AE65" s="77"/>
+      <c r="AF65" s="77"/>
+      <c r="AG65" s="77"/>
+      <c r="AH65" s="77"/>
     </row>
     <row r="67" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="81" t="s">
         <v>597</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="79"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="77"/>
     </row>
     <row r="68" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="82" t="s">
         <v>598</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="85" t="s">
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79"/>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="79"/>
-      <c r="R68" s="79"/>
-      <c r="S68" s="79"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
       <c r="T68" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="69" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
     </row>
     <row r="70" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="79" t="s">
         <v>601</v>
       </c>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
@@ -39104,17 +41510,17 @@
       </c>
     </row>
     <row r="74" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="87" t="s">
+      <c r="B74" s="85" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="75" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="87" t="s">
+      <c r="B75" s="85" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="76" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="87" t="s">
+      <c r="B76" s="85" t="s">
         <v>607</v>
       </c>
     </row>
@@ -39124,40 +41530,40 @@
       </c>
     </row>
     <row r="79" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="85" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="80" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="85" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="85" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B82" s="87" t="s">
+      <c r="B82" s="85" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B83" s="87"/>
+      <c r="B83" s="85"/>
     </row>
     <row r="84" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B84" s="87" t="s">
+      <c r="B84" s="85" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="85" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B86" s="87" t="s">
+      <c r="B86" s="85" t="s">
         <v>612</v>
       </c>
     </row>
@@ -39167,7 +41573,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="85" t="s">
         <v>616</v>
       </c>
       <c r="F89" s="50" t="s">
@@ -39175,17 +41581,17 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="85" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B91" s="87" t="s">
+      <c r="B91" s="85" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="75" t="s">
+      <c r="B93" s="74" t="s">
         <v>637</v>
       </c>
     </row>
@@ -39242,7 +41648,7 @@
       <c r="D104" s="60"/>
       <c r="E104" s="60"/>
       <c r="F104" s="60"/>
-      <c r="G104" s="88" t="s">
+      <c r="G104" s="86" t="s">
         <v>634</v>
       </c>
       <c r="H104" s="60"/>
@@ -39327,7 +41733,7 @@
       </c>
     </row>
     <row r="117" spans="2:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B117" s="75" t="s">
+      <c r="B117" s="74" t="s">
         <v>638</v>
       </c>
     </row>
@@ -39337,727 +41743,730 @@
       </c>
     </row>
     <row r="120" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B120" s="80" t="s">
+      <c r="B120" s="78" t="s">
         <v>640</v>
       </c>
-      <c r="C120" s="79"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="79"/>
-      <c r="J120" s="79"/>
-      <c r="K120" s="79"/>
-      <c r="L120" s="79"/>
-      <c r="M120" s="79"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
+      <c r="M120" s="77"/>
     </row>
     <row r="121" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B121" s="82"/>
-      <c r="C121" s="79"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
+      <c r="M121" s="77"/>
     </row>
     <row r="122" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="78" t="s">
         <v>641</v>
       </c>
-      <c r="C122" s="79"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="79"/>
-      <c r="J122" s="79"/>
-      <c r="K122" s="79"/>
-      <c r="L122" s="79"/>
-      <c r="M122" s="79"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="77"/>
+      <c r="M122" s="77"/>
     </row>
     <row r="123" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="80" t="s">
+      <c r="B123" s="78" t="s">
         <v>642</v>
       </c>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="K123" s="79"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="79"/>
-      <c r="Q123" s="80" t="s">
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="77"/>
+      <c r="J123" s="77"/>
+      <c r="K123" s="77"/>
+      <c r="L123" s="77"/>
+      <c r="M123" s="77"/>
+      <c r="Q123" s="78" t="s">
         <v>648</v>
       </c>
-      <c r="R123" s="79"/>
-      <c r="S123" s="79"/>
-      <c r="T123" s="79"/>
-      <c r="U123" s="79"/>
-      <c r="V123" s="79"/>
-      <c r="W123" s="79"/>
-      <c r="X123" s="79"/>
-      <c r="Y123" s="79"/>
-      <c r="Z123" s="79"/>
-      <c r="AA123" s="79"/>
-      <c r="AB123" s="79"/>
-      <c r="AC123" s="79"/>
-      <c r="AD123" s="79"/>
+      <c r="R123" s="77"/>
+      <c r="S123" s="77"/>
+      <c r="T123" s="77"/>
+      <c r="U123" s="77"/>
+      <c r="V123" s="77"/>
+      <c r="W123" s="77"/>
+      <c r="X123" s="77"/>
+      <c r="Y123" s="77"/>
+      <c r="Z123" s="77"/>
+      <c r="AA123" s="77"/>
+      <c r="AB123" s="77"/>
+      <c r="AC123" s="77"/>
+      <c r="AD123" s="77"/>
     </row>
     <row r="124" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B124" s="80" t="s">
+      <c r="B124" s="78" t="s">
         <v>643</v>
       </c>
-      <c r="C124" s="79"/>
-      <c r="D124" s="79"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79"/>
-      <c r="I124" s="79"/>
-      <c r="J124" s="79"/>
-      <c r="K124" s="79"/>
-      <c r="L124" s="79"/>
-      <c r="M124" s="79"/>
-      <c r="Q124" s="80" t="s">
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="77"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="77"/>
+      <c r="L124" s="77"/>
+      <c r="M124" s="77"/>
+      <c r="Q124" s="78" t="s">
         <v>649</v>
       </c>
-      <c r="R124" s="79"/>
-      <c r="S124" s="79"/>
-      <c r="T124" s="79"/>
-      <c r="U124" s="79"/>
-      <c r="V124" s="79"/>
-      <c r="W124" s="79"/>
-      <c r="X124" s="79"/>
-      <c r="Y124" s="79"/>
-      <c r="Z124" s="79"/>
-      <c r="AA124" s="79"/>
-      <c r="AB124" s="79"/>
-      <c r="AC124" s="79"/>
-      <c r="AD124" s="79"/>
+      <c r="R124" s="77"/>
+      <c r="S124" s="77"/>
+      <c r="T124" s="77"/>
+      <c r="U124" s="77"/>
+      <c r="V124" s="77"/>
+      <c r="W124" s="77"/>
+      <c r="X124" s="77"/>
+      <c r="Y124" s="77"/>
+      <c r="Z124" s="77"/>
+      <c r="AA124" s="77"/>
+      <c r="AB124" s="77"/>
+      <c r="AC124" s="77"/>
+      <c r="AD124" s="77"/>
     </row>
     <row r="125" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B125" s="80" t="s">
+      <c r="B125" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C125" s="79"/>
-      <c r="D125" s="79"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="79"/>
-      <c r="J125" s="79"/>
-      <c r="K125" s="79"/>
-      <c r="L125" s="79"/>
-      <c r="M125" s="79"/>
-      <c r="Q125" s="79"/>
-      <c r="R125" s="79"/>
-      <c r="S125" s="79"/>
-      <c r="T125" s="79"/>
-      <c r="U125" s="79"/>
-      <c r="V125" s="79"/>
-      <c r="W125" s="79"/>
-      <c r="X125" s="79"/>
-      <c r="Y125" s="79"/>
-      <c r="Z125" s="79"/>
-      <c r="AA125" s="79"/>
-      <c r="AB125" s="79"/>
-      <c r="AC125" s="79"/>
-      <c r="AD125" s="79"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="77"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="77"/>
+      <c r="L125" s="77"/>
+      <c r="M125" s="77"/>
+      <c r="Q125" s="77"/>
+      <c r="R125" s="77"/>
+      <c r="S125" s="77"/>
+      <c r="T125" s="77"/>
+      <c r="U125" s="77"/>
+      <c r="V125" s="77"/>
+      <c r="W125" s="77"/>
+      <c r="X125" s="77"/>
+      <c r="Y125" s="77"/>
+      <c r="Z125" s="77"/>
+      <c r="AA125" s="77"/>
+      <c r="AB125" s="77"/>
+      <c r="AC125" s="77"/>
+      <c r="AD125" s="77"/>
     </row>
     <row r="126" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B126" s="80" t="s">
+      <c r="B126" s="78" t="s">
         <v>644</v>
       </c>
-      <c r="C126" s="79"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
-      <c r="I126" s="79"/>
-      <c r="J126" s="79"/>
-      <c r="K126" s="79"/>
-      <c r="L126" s="79"/>
-      <c r="M126" s="79"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="77"/>
+      <c r="I126" s="77"/>
+      <c r="J126" s="77"/>
+      <c r="K126" s="77"/>
+      <c r="L126" s="77"/>
+      <c r="M126" s="77"/>
     </row>
     <row r="127" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B127" s="80" t="s">
+      <c r="B127" s="78" t="s">
         <v>645</v>
       </c>
-      <c r="C127" s="79"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="79"/>
-      <c r="I127" s="79"/>
-      <c r="J127" s="79"/>
-      <c r="K127" s="79"/>
-      <c r="L127" s="79"/>
-      <c r="M127" s="79"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="77"/>
+      <c r="G127" s="77"/>
+      <c r="H127" s="77"/>
+      <c r="I127" s="77"/>
+      <c r="J127" s="77"/>
+      <c r="K127" s="77"/>
+      <c r="L127" s="77"/>
+      <c r="M127" s="77"/>
     </row>
     <row r="128" spans="2:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="B128" s="80" t="s">
+      <c r="B128" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C128" s="79"/>
-      <c r="D128" s="79"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="79"/>
-      <c r="G128" s="79"/>
-      <c r="H128" s="79"/>
-      <c r="I128" s="79"/>
-      <c r="J128" s="79"/>
-      <c r="K128" s="79"/>
-      <c r="L128" s="79"/>
-      <c r="M128" s="79"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="77"/>
+      <c r="G128" s="77"/>
+      <c r="H128" s="77"/>
+      <c r="I128" s="77"/>
+      <c r="J128" s="77"/>
+      <c r="K128" s="77"/>
+      <c r="L128" s="77"/>
+      <c r="M128" s="77"/>
     </row>
     <row r="129" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B129" s="80" t="s">
+      <c r="B129" s="78" t="s">
         <v>646</v>
       </c>
-      <c r="C129" s="79"/>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="79"/>
-      <c r="H129" s="79"/>
-      <c r="I129" s="79"/>
-      <c r="J129" s="79"/>
-      <c r="K129" s="79"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="79"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="77"/>
+      <c r="J129" s="77"/>
+      <c r="K129" s="77"/>
+      <c r="L129" s="77"/>
+      <c r="M129" s="77"/>
     </row>
     <row r="130" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B130" s="80" t="s">
+      <c r="B130" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="C130" s="79"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="79"/>
-      <c r="I130" s="79"/>
-      <c r="J130" s="79"/>
-      <c r="K130" s="79"/>
-      <c r="L130" s="79"/>
-      <c r="M130" s="79"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="77"/>
+      <c r="J130" s="77"/>
+      <c r="K130" s="77"/>
+      <c r="L130" s="77"/>
+      <c r="M130" s="77"/>
     </row>
     <row r="131" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B131" s="80" t="s">
+      <c r="B131" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C131" s="79"/>
-      <c r="D131" s="79"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="79"/>
-      <c r="G131" s="79"/>
-      <c r="H131" s="79"/>
-      <c r="I131" s="79"/>
-      <c r="J131" s="79"/>
-      <c r="K131" s="79"/>
-      <c r="L131" s="79"/>
-      <c r="M131" s="79"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="77"/>
+      <c r="J131" s="77"/>
+      <c r="K131" s="77"/>
+      <c r="L131" s="77"/>
+      <c r="M131" s="77"/>
     </row>
     <row r="135" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B135" s="80" t="s">
+      <c r="B135" s="78" t="s">
         <v>650</v>
       </c>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="79"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="79"/>
-      <c r="J135" s="79"/>
-      <c r="K135" s="79"/>
-      <c r="L135" s="79"/>
-      <c r="M135" s="79"/>
-      <c r="N135" s="79"/>
-      <c r="O135" s="79"/>
-      <c r="P135" s="79"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="77"/>
+      <c r="J135" s="77"/>
+      <c r="K135" s="77"/>
+      <c r="L135" s="77"/>
+      <c r="M135" s="77"/>
+      <c r="N135" s="77"/>
+      <c r="O135" s="77"/>
+      <c r="P135" s="77"/>
     </row>
     <row r="136" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B136" s="80" t="s">
+      <c r="B136" s="78" t="s">
         <v>651</v>
       </c>
-      <c r="C136" s="79"/>
-      <c r="D136" s="79"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="79"/>
-      <c r="H136" s="79"/>
-      <c r="I136" s="79"/>
-      <c r="J136" s="79"/>
-      <c r="K136" s="79"/>
-      <c r="L136" s="79"/>
-      <c r="M136" s="79"/>
-      <c r="N136" s="79"/>
-      <c r="O136" s="79"/>
-      <c r="P136" s="79"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="77"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="77"/>
+      <c r="M136" s="77"/>
+      <c r="N136" s="77"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="77"/>
+      <c r="S136" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="137" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B137" s="80" t="s">
+      <c r="B137" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="79"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="79"/>
-      <c r="J137" s="79"/>
-      <c r="K137" s="79"/>
-      <c r="L137" s="79"/>
-      <c r="M137" s="79"/>
-      <c r="N137" s="79"/>
-      <c r="O137" s="79"/>
-      <c r="P137" s="79"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="77"/>
+      <c r="I137" s="77"/>
+      <c r="J137" s="77"/>
+      <c r="K137" s="77"/>
+      <c r="L137" s="77"/>
+      <c r="M137" s="77"/>
+      <c r="N137" s="77"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="77"/>
     </row>
     <row r="138" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B138" s="82"/>
-      <c r="C138" s="79"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="79"/>
-      <c r="I138" s="79"/>
-      <c r="J138" s="79"/>
-      <c r="K138" s="79"/>
-      <c r="L138" s="79"/>
-      <c r="M138" s="79"/>
-      <c r="N138" s="79"/>
-      <c r="O138" s="79"/>
-      <c r="P138" s="79"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="77"/>
+      <c r="J138" s="77"/>
+      <c r="K138" s="77"/>
+      <c r="L138" s="77"/>
+      <c r="M138" s="77"/>
+      <c r="N138" s="77"/>
+      <c r="O138" s="77"/>
+      <c r="P138" s="77"/>
     </row>
     <row r="139" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B139" s="80" t="s">
+      <c r="B139" s="78" t="s">
         <v>652</v>
       </c>
-      <c r="C139" s="79"/>
-      <c r="D139" s="79"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="79"/>
-      <c r="I139" s="79"/>
-      <c r="J139" s="79"/>
-      <c r="K139" s="79"/>
-      <c r="L139" s="79"/>
-      <c r="M139" s="79"/>
-      <c r="N139" s="79"/>
-      <c r="O139" s="79"/>
-      <c r="P139" s="79"/>
-      <c r="W139" s="80" t="s">
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="77"/>
+      <c r="J139" s="77"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="77"/>
+      <c r="M139" s="77"/>
+      <c r="N139" s="77"/>
+      <c r="O139" s="77"/>
+      <c r="P139" s="77"/>
+      <c r="W139" s="78" t="s">
         <v>659</v>
       </c>
-      <c r="X139" s="79"/>
-      <c r="Y139" s="79"/>
-      <c r="Z139" s="79"/>
-      <c r="AA139" s="79"/>
-      <c r="AB139" s="79"/>
-      <c r="AC139" s="79"/>
-      <c r="AD139" s="79"/>
-      <c r="AE139" s="79"/>
-      <c r="AF139" s="79"/>
-      <c r="AG139" s="79"/>
-      <c r="AH139" s="79"/>
-      <c r="AI139" s="79"/>
-      <c r="AJ139" s="79"/>
+      <c r="X139" s="77"/>
+      <c r="Y139" s="77"/>
+      <c r="Z139" s="77"/>
+      <c r="AA139" s="77"/>
+      <c r="AB139" s="77"/>
+      <c r="AC139" s="77"/>
+      <c r="AD139" s="77"/>
+      <c r="AE139" s="77"/>
+      <c r="AF139" s="77"/>
+      <c r="AG139" s="77"/>
+      <c r="AH139" s="77"/>
+      <c r="AI139" s="77"/>
+      <c r="AJ139" s="77"/>
     </row>
     <row r="140" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B140" s="80" t="s">
+      <c r="B140" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="C140" s="79"/>
-      <c r="D140" s="79"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="79"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="79"/>
-      <c r="I140" s="79"/>
-      <c r="J140" s="79"/>
-      <c r="K140" s="79"/>
-      <c r="L140" s="79"/>
-      <c r="M140" s="79"/>
-      <c r="N140" s="79"/>
-      <c r="O140" s="79"/>
-      <c r="P140" s="79"/>
-      <c r="W140" s="80" t="s">
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="77"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="77"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="77"/>
+      <c r="W140" s="78" t="s">
         <v>660</v>
       </c>
-      <c r="X140" s="79"/>
-      <c r="Y140" s="79"/>
-      <c r="Z140" s="79"/>
-      <c r="AA140" s="79"/>
-      <c r="AB140" s="79"/>
-      <c r="AC140" s="79"/>
-      <c r="AD140" s="79"/>
-      <c r="AE140" s="79"/>
-      <c r="AF140" s="79"/>
-      <c r="AG140" s="79"/>
-      <c r="AH140" s="79"/>
-      <c r="AI140" s="79"/>
-      <c r="AJ140" s="79"/>
+      <c r="X140" s="77"/>
+      <c r="Y140" s="77"/>
+      <c r="Z140" s="77"/>
+      <c r="AA140" s="77"/>
+      <c r="AB140" s="77"/>
+      <c r="AC140" s="77"/>
+      <c r="AD140" s="77"/>
+      <c r="AE140" s="77"/>
+      <c r="AF140" s="77"/>
+      <c r="AG140" s="77"/>
+      <c r="AH140" s="77"/>
+      <c r="AI140" s="77"/>
+      <c r="AJ140" s="77"/>
     </row>
     <row r="141" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B141" s="80" t="s">
+      <c r="B141" s="78" t="s">
         <v>654</v>
       </c>
-      <c r="C141" s="79"/>
-      <c r="D141" s="79"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="79"/>
-      <c r="G141" s="79"/>
-      <c r="H141" s="79"/>
-      <c r="I141" s="79"/>
-      <c r="J141" s="79"/>
-      <c r="K141" s="79"/>
-      <c r="L141" s="79"/>
-      <c r="M141" s="79"/>
-      <c r="N141" s="79"/>
-      <c r="O141" s="79"/>
-      <c r="P141" s="79"/>
-      <c r="W141" s="79"/>
-      <c r="X141" s="79"/>
-      <c r="Y141" s="79"/>
-      <c r="Z141" s="79"/>
-      <c r="AA141" s="79"/>
-      <c r="AB141" s="79"/>
-      <c r="AC141" s="79"/>
-      <c r="AD141" s="79"/>
-      <c r="AE141" s="79"/>
-      <c r="AF141" s="79"/>
-      <c r="AG141" s="79"/>
-      <c r="AH141" s="79"/>
-      <c r="AI141" s="79"/>
-      <c r="AJ141" s="79"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="77"/>
+      <c r="M141" s="77"/>
+      <c r="N141" s="77"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="77"/>
+      <c r="W141" s="77"/>
+      <c r="X141" s="77"/>
+      <c r="Y141" s="77"/>
+      <c r="Z141" s="77"/>
+      <c r="AA141" s="77"/>
+      <c r="AB141" s="77"/>
+      <c r="AC141" s="77"/>
+      <c r="AD141" s="77"/>
+      <c r="AE141" s="77"/>
+      <c r="AF141" s="77"/>
+      <c r="AG141" s="77"/>
+      <c r="AH141" s="77"/>
+      <c r="AI141" s="77"/>
+      <c r="AJ141" s="77"/>
     </row>
     <row r="142" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B142" s="82"/>
-      <c r="C142" s="79"/>
-      <c r="D142" s="79"/>
-      <c r="E142" s="79"/>
-      <c r="F142" s="79"/>
-      <c r="G142" s="79"/>
-      <c r="H142" s="79"/>
-      <c r="I142" s="79"/>
-      <c r="J142" s="79"/>
-      <c r="K142" s="79"/>
-      <c r="L142" s="79"/>
-      <c r="M142" s="79"/>
-      <c r="N142" s="79"/>
-      <c r="O142" s="79"/>
-      <c r="P142" s="79"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="77"/>
+      <c r="P142" s="77"/>
     </row>
     <row r="143" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B143" s="80" t="s">
+      <c r="B143" s="78" t="s">
         <v>655</v>
       </c>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="79"/>
-      <c r="H143" s="79"/>
-      <c r="I143" s="79"/>
-      <c r="J143" s="79"/>
-      <c r="K143" s="79"/>
-      <c r="L143" s="79"/>
-      <c r="M143" s="79"/>
-      <c r="N143" s="79"/>
-      <c r="O143" s="79"/>
-      <c r="P143" s="79"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="77"/>
+      <c r="M143" s="77"/>
+      <c r="N143" s="77"/>
+      <c r="O143" s="77"/>
+      <c r="P143" s="77"/>
     </row>
     <row r="144" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B144" s="80" t="s">
+      <c r="B144" s="78" t="s">
         <v>656</v>
       </c>
-      <c r="C144" s="79"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="79"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="79"/>
-      <c r="H144" s="79"/>
-      <c r="I144" s="79"/>
-      <c r="J144" s="79"/>
-      <c r="K144" s="79"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="79"/>
-      <c r="N144" s="79"/>
-      <c r="O144" s="79"/>
-      <c r="P144" s="79"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="77"/>
+      <c r="H144" s="77"/>
+      <c r="I144" s="77"/>
+      <c r="J144" s="77"/>
+      <c r="K144" s="77"/>
+      <c r="L144" s="77"/>
+      <c r="M144" s="77"/>
+      <c r="N144" s="77"/>
+      <c r="O144" s="77"/>
+      <c r="P144" s="77"/>
     </row>
     <row r="145" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B145" s="80" t="s">
+      <c r="B145" s="78" t="s">
         <v>657</v>
       </c>
-      <c r="C145" s="79"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="79"/>
-      <c r="I145" s="79"/>
-      <c r="J145" s="79"/>
-      <c r="K145" s="79"/>
-      <c r="L145" s="79"/>
-      <c r="M145" s="79"/>
-      <c r="N145" s="79"/>
-      <c r="O145" s="79"/>
-      <c r="P145" s="79"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
+      <c r="H145" s="77"/>
+      <c r="I145" s="77"/>
+      <c r="J145" s="77"/>
+      <c r="K145" s="77"/>
+      <c r="L145" s="77"/>
+      <c r="M145" s="77"/>
+      <c r="N145" s="77"/>
+      <c r="O145" s="77"/>
+      <c r="P145" s="77"/>
     </row>
     <row r="146" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B146" s="80" t="s">
+      <c r="B146" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C146" s="79"/>
-      <c r="D146" s="79"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="79"/>
-      <c r="I146" s="79"/>
-      <c r="J146" s="79"/>
-      <c r="K146" s="79"/>
-      <c r="L146" s="79"/>
-      <c r="M146" s="79"/>
-      <c r="N146" s="79"/>
-      <c r="O146" s="79"/>
-      <c r="P146" s="79"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="77"/>
+      <c r="I146" s="77"/>
+      <c r="J146" s="77"/>
+      <c r="K146" s="77"/>
+      <c r="L146" s="77"/>
+      <c r="M146" s="77"/>
+      <c r="N146" s="77"/>
+      <c r="O146" s="77"/>
+      <c r="P146" s="77"/>
     </row>
     <row r="147" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B147" s="80" t="s">
+      <c r="B147" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="79"/>
-      <c r="D147" s="79"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
-      <c r="G147" s="79"/>
-      <c r="H147" s="79"/>
-      <c r="I147" s="79"/>
-      <c r="J147" s="79"/>
-      <c r="K147" s="79"/>
-      <c r="L147" s="79"/>
-      <c r="M147" s="79"/>
-      <c r="N147" s="79"/>
-      <c r="O147" s="79"/>
-      <c r="P147" s="79"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="77"/>
+      <c r="G147" s="77"/>
+      <c r="H147" s="77"/>
+      <c r="I147" s="77"/>
+      <c r="J147" s="77"/>
+      <c r="K147" s="77"/>
+      <c r="L147" s="77"/>
+      <c r="M147" s="77"/>
+      <c r="N147" s="77"/>
+      <c r="O147" s="77"/>
+      <c r="P147" s="77"/>
     </row>
     <row r="152" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B152" s="80" t="s">
+      <c r="B152" s="78" t="s">
         <v>658</v>
       </c>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="79"/>
-      <c r="H152" s="79"/>
-      <c r="I152" s="79"/>
-      <c r="J152" s="79"/>
-      <c r="K152" s="79"/>
-      <c r="L152" s="79"/>
-      <c r="M152" s="79"/>
-      <c r="N152" s="79"/>
-      <c r="O152" s="79"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="77"/>
+      <c r="G152" s="77"/>
+      <c r="H152" s="77"/>
+      <c r="I152" s="77"/>
+      <c r="J152" s="77"/>
+      <c r="K152" s="77"/>
+      <c r="L152" s="77"/>
+      <c r="M152" s="77"/>
+      <c r="N152" s="77"/>
+      <c r="O152" s="77"/>
     </row>
     <row r="153" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B153" s="80" t="s">
+      <c r="B153" s="78" t="s">
         <v>642</v>
       </c>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
-      <c r="F153" s="79"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="79"/>
-      <c r="J153" s="79"/>
-      <c r="K153" s="79"/>
-      <c r="L153" s="79"/>
-      <c r="M153" s="79"/>
-      <c r="N153" s="79"/>
-      <c r="O153" s="79"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="77"/>
+      <c r="I153" s="77"/>
+      <c r="J153" s="77"/>
+      <c r="K153" s="77"/>
+      <c r="L153" s="77"/>
+      <c r="M153" s="77"/>
+      <c r="N153" s="77"/>
+      <c r="O153" s="77"/>
     </row>
     <row r="154" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B154" s="80" t="s">
+      <c r="B154" s="78" t="s">
         <v>643</v>
       </c>
-      <c r="C154" s="79"/>
-      <c r="D154" s="79"/>
-      <c r="E154" s="79"/>
-      <c r="F154" s="79"/>
-      <c r="G154" s="79"/>
-      <c r="H154" s="79"/>
-      <c r="I154" s="79"/>
-      <c r="J154" s="79"/>
-      <c r="K154" s="79"/>
-      <c r="L154" s="79"/>
-      <c r="M154" s="79"/>
-      <c r="N154" s="79"/>
-      <c r="O154" s="79"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="77"/>
+      <c r="I154" s="77"/>
+      <c r="J154" s="77"/>
+      <c r="K154" s="77"/>
+      <c r="L154" s="77"/>
+      <c r="M154" s="77"/>
+      <c r="N154" s="77"/>
+      <c r="O154" s="77"/>
     </row>
     <row r="155" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B155" s="80" t="s">
+      <c r="B155" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C155" s="79"/>
-      <c r="D155" s="79"/>
-      <c r="E155" s="79"/>
-      <c r="F155" s="79"/>
-      <c r="G155" s="79"/>
-      <c r="H155" s="79"/>
-      <c r="I155" s="79"/>
-      <c r="J155" s="79"/>
-      <c r="K155" s="79"/>
-      <c r="L155" s="79"/>
-      <c r="M155" s="79"/>
-      <c r="N155" s="79"/>
-      <c r="O155" s="79"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="77"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="77"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="77"/>
+      <c r="I155" s="77"/>
+      <c r="J155" s="77"/>
+      <c r="K155" s="77"/>
+      <c r="L155" s="77"/>
+      <c r="M155" s="77"/>
+      <c r="N155" s="77"/>
+      <c r="O155" s="77"/>
     </row>
     <row r="156" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B156" s="80" t="s">
+      <c r="B156" s="78" t="s">
         <v>644</v>
       </c>
-      <c r="C156" s="79"/>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="79"/>
-      <c r="H156" s="79"/>
-      <c r="I156" s="79"/>
-      <c r="J156" s="79"/>
-      <c r="K156" s="79"/>
-      <c r="L156" s="79"/>
-      <c r="M156" s="79"/>
-      <c r="N156" s="79"/>
-      <c r="O156" s="79"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="77"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="77"/>
+      <c r="I156" s="77"/>
+      <c r="J156" s="77"/>
+      <c r="K156" s="77"/>
+      <c r="L156" s="77"/>
+      <c r="M156" s="77"/>
+      <c r="N156" s="77"/>
+      <c r="O156" s="77"/>
     </row>
     <row r="157" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B157" s="80" t="s">
+      <c r="B157" s="78" t="s">
         <v>645</v>
       </c>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="79"/>
-      <c r="H157" s="79"/>
-      <c r="I157" s="79"/>
-      <c r="J157" s="79"/>
-      <c r="K157" s="79"/>
-      <c r="L157" s="79"/>
-      <c r="M157" s="79"/>
-      <c r="N157" s="79"/>
-      <c r="O157" s="79"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
+      <c r="I157" s="77"/>
+      <c r="J157" s="77"/>
+      <c r="K157" s="77"/>
+      <c r="L157" s="77"/>
+      <c r="M157" s="77"/>
+      <c r="N157" s="77"/>
+      <c r="O157" s="77"/>
     </row>
     <row r="158" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B158" s="80" t="s">
+      <c r="B158" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="77"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="77"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="77"/>
+      <c r="I158" s="77"/>
+      <c r="J158" s="77"/>
+      <c r="K158" s="77"/>
+      <c r="L158" s="77"/>
+      <c r="M158" s="77"/>
+      <c r="N158" s="77"/>
+      <c r="O158" s="77"/>
     </row>
     <row r="159" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B159" s="80" t="s">
+      <c r="B159" s="78" t="s">
         <v>646</v>
       </c>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="79"/>
-      <c r="H159" s="79"/>
-      <c r="I159" s="79"/>
-      <c r="J159" s="79"/>
-      <c r="K159" s="79"/>
-      <c r="L159" s="79"/>
-      <c r="M159" s="79"/>
-      <c r="N159" s="79"/>
-      <c r="O159" s="79"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="77"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="77"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="77"/>
+      <c r="I159" s="77"/>
+      <c r="J159" s="77"/>
+      <c r="K159" s="77"/>
+      <c r="L159" s="77"/>
+      <c r="M159" s="77"/>
+      <c r="N159" s="77"/>
+      <c r="O159" s="77"/>
     </row>
     <row r="160" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B160" s="80" t="s">
+      <c r="B160" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="C160" s="79"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="79"/>
-      <c r="F160" s="79"/>
-      <c r="G160" s="79"/>
-      <c r="H160" s="79"/>
-      <c r="I160" s="79"/>
-      <c r="J160" s="79"/>
-      <c r="K160" s="79"/>
-      <c r="L160" s="79"/>
-      <c r="M160" s="79"/>
-      <c r="N160" s="79"/>
-      <c r="O160" s="79"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="77"/>
+      <c r="H160" s="77"/>
+      <c r="I160" s="77"/>
+      <c r="J160" s="77"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="77"/>
+      <c r="M160" s="77"/>
+      <c r="N160" s="77"/>
+      <c r="O160" s="77"/>
     </row>
     <row r="161" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B161" s="80" t="s">
+      <c r="B161" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="79"/>
-      <c r="F161" s="79"/>
-      <c r="G161" s="79"/>
-      <c r="H161" s="79"/>
-      <c r="I161" s="79"/>
-      <c r="J161" s="79"/>
-      <c r="K161" s="79"/>
-      <c r="L161" s="79"/>
-      <c r="M161" s="79"/>
-      <c r="N161" s="79"/>
-      <c r="O161" s="79"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="77"/>
+      <c r="H161" s="77"/>
+      <c r="I161" s="77"/>
+      <c r="J161" s="77"/>
+      <c r="K161" s="77"/>
+      <c r="L161" s="77"/>
+      <c r="M161" s="77"/>
+      <c r="N161" s="77"/>
+      <c r="O161" s="77"/>
     </row>
     <row r="162" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B162" s="80" t="s">
+      <c r="B162" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="79"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="79"/>
-      <c r="F162" s="79"/>
-      <c r="G162" s="79"/>
-      <c r="H162" s="79"/>
-      <c r="I162" s="79"/>
-      <c r="J162" s="79"/>
-      <c r="K162" s="79"/>
-      <c r="L162" s="79"/>
-      <c r="M162" s="79"/>
-      <c r="N162" s="79"/>
-      <c r="O162" s="79"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="77"/>
+      <c r="G162" s="77"/>
+      <c r="H162" s="77"/>
+      <c r="I162" s="77"/>
+      <c r="J162" s="77"/>
+      <c r="K162" s="77"/>
+      <c r="L162" s="77"/>
+      <c r="M162" s="77"/>
+      <c r="N162" s="77"/>
+      <c r="O162" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40075,6 +42484,87 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="66" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
+        <v>663</v>
+      </c>
+      <c r="K5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="K7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="66" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="50" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="66" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="50" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="50" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="66" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40102,7 +42592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M26"/>
   <sheetViews>
@@ -40199,7 +42689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -40211,7 +42701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB22"/>
   <sheetViews>
@@ -40865,2364 +43355,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB91"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-    </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-    </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-    </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-    </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-    </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-    </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-    </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-    </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-    </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-    </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-    </row>
-    <row r="33" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-    </row>
-    <row r="34" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="39" t="s">
-        <v>430</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-    </row>
-    <row r="35" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-    </row>
-    <row r="36" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-    </row>
-    <row r="37" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-    </row>
-    <row r="39" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-    </row>
-    <row r="40" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C48" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-    </row>
-    <row r="49" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C49" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C50" s="45"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-    </row>
-    <row r="51" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C51" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-    </row>
-    <row r="52" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C52" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-    </row>
-    <row r="53" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C53" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-    </row>
-    <row r="54" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C54" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-    </row>
-    <row r="55" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C55" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C56" s="45"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-    </row>
-    <row r="57" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C57" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-    </row>
-    <row r="58" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C58" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C59" s="45"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-    </row>
-    <row r="60" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C60" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C61" s="45"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
-    </row>
-    <row r="62" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C62" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-    </row>
-    <row r="63" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C63" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-    </row>
-    <row r="64" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C64" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-    </row>
-    <row r="65" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C65" s="45"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-    </row>
-    <row r="66" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C66" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
-    </row>
-    <row r="67" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C67" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-    </row>
-    <row r="68" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C68" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="52"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="52"/>
-    </row>
-    <row r="69" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C69" s="45"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
-      <c r="Y69" s="52"/>
-      <c r="Z69" s="52"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="52"/>
-    </row>
-    <row r="70" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C70" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="52"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-    </row>
-    <row r="71" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C71" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-    </row>
-    <row r="72" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C72" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-      <c r="Y72" s="52"/>
-      <c r="Z72" s="52"/>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-    </row>
-    <row r="73" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C73" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="52"/>
-      <c r="Y73" s="52"/>
-      <c r="Z73" s="52"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
-    </row>
-    <row r="74" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C74" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="52"/>
-      <c r="X74" s="52"/>
-      <c r="Y74" s="52"/>
-      <c r="Z74" s="52"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="52"/>
-    </row>
-    <row r="75" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C75" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-    </row>
-    <row r="76" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C76" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-      <c r="W76" s="52"/>
-      <c r="X76" s="52"/>
-      <c r="Y76" s="52"/>
-      <c r="Z76" s="52"/>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="52"/>
-    </row>
-    <row r="77" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C77" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-    </row>
-    <row r="78" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C78" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="52"/>
-      <c r="P78" s="52"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="52"/>
-      <c r="T78" s="52"/>
-      <c r="U78" s="52"/>
-      <c r="V78" s="52"/>
-      <c r="W78" s="52"/>
-      <c r="X78" s="52"/>
-      <c r="Y78" s="52"/>
-      <c r="Z78" s="52"/>
-      <c r="AA78" s="52"/>
-      <c r="AB78" s="52"/>
-    </row>
-    <row r="79" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C79" s="45"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="52"/>
-      <c r="S79" s="52"/>
-      <c r="T79" s="52"/>
-      <c r="U79" s="52"/>
-      <c r="V79" s="52"/>
-      <c r="W79" s="52"/>
-      <c r="X79" s="52"/>
-      <c r="Y79" s="52"/>
-      <c r="Z79" s="52"/>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="52"/>
-    </row>
-    <row r="80" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C80" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="52"/>
-      <c r="S80" s="52"/>
-      <c r="T80" s="52"/>
-      <c r="U80" s="52"/>
-      <c r="V80" s="52"/>
-      <c r="W80" s="52"/>
-      <c r="X80" s="52"/>
-      <c r="Y80" s="52"/>
-      <c r="Z80" s="52"/>
-      <c r="AA80" s="52"/>
-      <c r="AB80" s="52"/>
-    </row>
-    <row r="81" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C81" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="52"/>
-      <c r="X81" s="52"/>
-      <c r="Y81" s="52"/>
-      <c r="Z81" s="52"/>
-      <c r="AA81" s="52"/>
-      <c r="AB81" s="52"/>
-    </row>
-    <row r="82" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C82" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="52"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="52"/>
-      <c r="R82" s="52"/>
-      <c r="S82" s="52"/>
-      <c r="T82" s="52"/>
-      <c r="U82" s="52"/>
-      <c r="V82" s="52"/>
-      <c r="W82" s="52"/>
-      <c r="X82" s="52"/>
-      <c r="Y82" s="52"/>
-      <c r="Z82" s="52"/>
-      <c r="AA82" s="52"/>
-      <c r="AB82" s="52"/>
-    </row>
-    <row r="83" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C83" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="52"/>
-      <c r="S83" s="52"/>
-      <c r="T83" s="52"/>
-      <c r="U83" s="52"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="52"/>
-      <c r="X83" s="52"/>
-      <c r="Y83" s="52"/>
-      <c r="Z83" s="52"/>
-      <c r="AA83" s="52"/>
-      <c r="AB83" s="52"/>
-    </row>
-    <row r="84" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C84" s="44" t="s">
-        <v>461</v>
-      </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="52"/>
-      <c r="R84" s="52"/>
-      <c r="S84" s="52"/>
-      <c r="T84" s="52"/>
-      <c r="U84" s="52"/>
-      <c r="V84" s="52"/>
-      <c r="W84" s="52"/>
-      <c r="X84" s="52"/>
-      <c r="Y84" s="52"/>
-      <c r="Z84" s="52"/>
-      <c r="AA84" s="52"/>
-      <c r="AB84" s="52"/>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C85" s="45"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="52"/>
-      <c r="V85" s="52"/>
-      <c r="W85" s="52"/>
-      <c r="X85" s="52"/>
-      <c r="Y85" s="52"/>
-      <c r="Z85" s="52"/>
-      <c r="AA85" s="52"/>
-      <c r="AB85" s="52"/>
-    </row>
-    <row r="86" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C86" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="52"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="52"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
-      <c r="T86" s="52"/>
-      <c r="U86" s="52"/>
-      <c r="V86" s="52"/>
-      <c r="W86" s="52"/>
-      <c r="X86" s="52"/>
-      <c r="Y86" s="52"/>
-      <c r="Z86" s="52"/>
-      <c r="AA86" s="52"/>
-      <c r="AB86" s="52"/>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C87" s="45"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="52"/>
-      <c r="W87" s="52"/>
-      <c r="X87" s="52"/>
-      <c r="Y87" s="52"/>
-      <c r="Z87" s="52"/>
-      <c r="AA87" s="52"/>
-      <c r="AB87" s="52"/>
-    </row>
-    <row r="88" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C88" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="52"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="52"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
-      <c r="U88" s="52"/>
-      <c r="V88" s="52"/>
-      <c r="W88" s="52"/>
-      <c r="X88" s="52"/>
-      <c r="Y88" s="52"/>
-      <c r="Z88" s="52"/>
-      <c r="AA88" s="52"/>
-      <c r="AB88" s="52"/>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C89" s="45"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
-      <c r="K89" s="52"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="52"/>
-      <c r="W89" s="52"/>
-      <c r="X89" s="52"/>
-      <c r="Y89" s="52"/>
-      <c r="Z89" s="52"/>
-      <c r="AA89" s="52"/>
-      <c r="AB89" s="52"/>
-    </row>
-    <row r="90" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C90" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
-      <c r="T90" s="52"/>
-      <c r="U90" s="52"/>
-      <c r="V90" s="52"/>
-      <c r="W90" s="52"/>
-      <c r="X90" s="52"/>
-      <c r="Y90" s="52"/>
-      <c r="Z90" s="52"/>
-      <c r="AA90" s="52"/>
-      <c r="AB90" s="52"/>
-    </row>
-    <row r="91" spans="3:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="C91" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="52"/>
-      <c r="S91" s="52"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="52"/>
-      <c r="V91" s="52"/>
-      <c r="W91" s="52"/>
-      <c r="X91" s="52"/>
-      <c r="Y91" s="52"/>
-      <c r="Z91" s="52"/>
-      <c r="AA91" s="52"/>
-      <c r="AB91" s="52"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>